--- a/sample_info.xlsx
+++ b/sample_info.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="25600" windowHeight="19660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
   <si>
     <t>sample_id</t>
   </si>
@@ -442,6 +442,30 @@
   </si>
   <si>
     <t>Bacteroidetes sp.</t>
+  </si>
+  <si>
+    <t>Contamination Possibility</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>batch 1</t>
+  </si>
+  <si>
+    <t>inset_size</t>
+  </si>
+  <si>
+    <t>batch 2</t>
+  </si>
+  <si>
+    <t>NOT PRESENT IN 2.2</t>
+  </si>
+  <si>
+    <t>min_contif_lgth</t>
+  </si>
+  <si>
+    <t>standard_dev</t>
   </si>
 </sst>
 </file>
@@ -1042,21 +1066,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV138"/>
+  <dimension ref="A1:AW138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1094,20 @@
       <c r="D1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1080,8 +1117,20 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2">
+        <v>280</v>
+      </c>
+      <c r="J2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1140,20 @@
       <c r="C3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3">
+        <v>700</v>
+      </c>
+      <c r="J3">
+        <v>250</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1186,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1233,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1244,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1255,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +1266,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1280,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1230,7 +1291,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1241,15 +1302,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1324,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1270,16 +1334,22 @@
       <c r="C19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="F19" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="F20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1287,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1297,16 +1367,22 @@
       <c r="C22" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1314,15 +1390,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="F25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1333,7 +1412,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1423,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1352,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1360,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1450,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1658,7 +1737,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1669,7 +1748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1680,7 +1759,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1691,7 +1770,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1702,7 +1781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1713,15 +1792,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1732,7 +1814,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1743,7 +1825,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1754,7 +1836,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1765,7 +1847,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1776,7 +1858,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1787,7 +1869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1798,7 +1880,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1809,7 +1891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1820,7 +1902,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2218,7 +2300,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:48">
+    <row r="129" spans="1:49">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2226,7 +2308,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:48">
+    <row r="130" spans="1:49">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2234,16 +2316,16 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:48">
+    <row r="133" spans="1:49">
       <c r="A133" t="s">
         <v>136</v>
       </c>
       <c r="B133">
-        <f>AVERAGE(A134:AV134)</f>
+        <f>AVERAGE(A134:AW134)</f>
         <v>192.0625</v>
       </c>
     </row>
-    <row r="134" spans="1:48">
+    <row r="134" spans="1:49">
       <c r="A134" s="7">
         <v>174</v>
       </c>
@@ -2271,138 +2353,139 @@
       <c r="I134" s="9">
         <v>478</v>
       </c>
-      <c r="J134" s="9">
+      <c r="J134" s="9"/>
+      <c r="K134" s="9">
         <v>621</v>
       </c>
-      <c r="K134" s="12">
+      <c r="L134" s="12">
         <v>92</v>
       </c>
-      <c r="L134" s="9">
+      <c r="M134" s="9">
         <v>797</v>
       </c>
-      <c r="M134" s="17">
+      <c r="N134" s="17">
         <v>72</v>
       </c>
-      <c r="N134" s="9">
+      <c r="O134" s="9">
         <v>1165</v>
       </c>
-      <c r="O134" s="5">
+      <c r="P134" s="5">
         <v>99</v>
       </c>
-      <c r="P134" s="16">
+      <c r="Q134" s="16">
         <v>209</v>
       </c>
-      <c r="Q134" s="10">
+      <c r="R134" s="10">
         <v>70</v>
       </c>
-      <c r="R134" s="13">
+      <c r="S134" s="13">
         <v>200</v>
       </c>
-      <c r="S134" s="7">
+      <c r="T134" s="7">
         <v>175</v>
       </c>
-      <c r="T134" s="21">
+      <c r="U134" s="21">
         <v>133</v>
       </c>
-      <c r="U134" s="4">
+      <c r="V134" s="4">
         <v>274</v>
       </c>
-      <c r="V134" s="9">
+      <c r="W134" s="9">
         <v>472</v>
       </c>
-      <c r="W134" s="21">
+      <c r="X134" s="21">
         <v>125</v>
       </c>
-      <c r="X134" s="17">
+      <c r="Y134" s="17">
         <v>73</v>
       </c>
-      <c r="Y134" s="23">
+      <c r="Z134" s="23">
         <v>260</v>
       </c>
-      <c r="Z134" s="12">
+      <c r="AA134" s="12">
         <v>87</v>
       </c>
-      <c r="AA134" s="5">
+      <c r="AB134" s="5">
         <v>106</v>
       </c>
-      <c r="AB134" s="21">
+      <c r="AC134" s="21">
         <v>133</v>
       </c>
-      <c r="AC134" s="15">
+      <c r="AD134" s="15">
         <v>254</v>
       </c>
-      <c r="AD134" s="11">
+      <c r="AE134" s="11">
         <v>57</v>
       </c>
-      <c r="AE134" s="3">
+      <c r="AF134" s="3">
         <v>177</v>
       </c>
-      <c r="AF134" s="17">
+      <c r="AG134" s="17">
         <v>77</v>
       </c>
-      <c r="AG134" s="5">
+      <c r="AH134" s="5">
         <v>106</v>
       </c>
-      <c r="AH134" s="3">
+      <c r="AI134" s="3">
         <v>187</v>
       </c>
-      <c r="AI134" s="22">
+      <c r="AJ134" s="22">
         <v>40</v>
       </c>
-      <c r="AJ134" s="10">
+      <c r="AK134" s="10">
         <v>70</v>
-      </c>
-      <c r="AK134" s="11">
-        <v>51</v>
       </c>
       <c r="AL134" s="11">
         <v>51</v>
       </c>
-      <c r="AM134" s="15">
+      <c r="AM134" s="11">
+        <v>51</v>
+      </c>
+      <c r="AN134" s="15">
         <v>245</v>
       </c>
-      <c r="AN134" s="22">
+      <c r="AO134" s="22">
         <v>42</v>
       </c>
-      <c r="AO134" s="10">
+      <c r="AP134" s="10">
         <v>63</v>
       </c>
-      <c r="AP134" s="24">
+      <c r="AQ134" s="24">
         <v>116</v>
       </c>
-      <c r="AQ134" s="22">
+      <c r="AR134" s="22">
         <v>37</v>
       </c>
-      <c r="AR134" s="11">
+      <c r="AS134" s="11">
         <v>58</v>
       </c>
-      <c r="AS134" s="12">
+      <c r="AT134" s="12">
         <v>91</v>
       </c>
-      <c r="AT134" s="10">
+      <c r="AU134" s="10">
         <v>67</v>
       </c>
-      <c r="AU134" s="22">
+      <c r="AV134" s="22">
         <v>34</v>
       </c>
-      <c r="AV134" s="24">
+      <c r="AW134" s="24">
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:48">
+    <row r="135" spans="1:49">
       <c r="A135" s="14"/>
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="1:48">
+    <row r="136" spans="1:49">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <f>AVERAGE(A137:AU137)</f>
+        <f>AVERAGE(A137:AV137)</f>
         <v>277.82978723404256</v>
       </c>
     </row>
-    <row r="137" spans="1:48">
+    <row r="137" spans="1:49">
       <c r="A137" s="3">
         <v>257</v>
       </c>
@@ -2430,122 +2513,123 @@
       <c r="I137" s="9">
         <v>1631</v>
       </c>
-      <c r="J137" s="9">
+      <c r="J137" s="9"/>
+      <c r="K137" s="9">
         <v>630</v>
       </c>
-      <c r="K137" s="10">
+      <c r="L137" s="10">
         <v>114</v>
       </c>
-      <c r="L137" s="9">
+      <c r="M137" s="9">
         <v>927</v>
       </c>
-      <c r="M137" s="11">
+      <c r="N137" s="11">
         <v>100</v>
       </c>
-      <c r="N137" s="9">
+      <c r="O137" s="9">
         <v>1612</v>
       </c>
-      <c r="O137" s="12">
+      <c r="P137" s="12">
         <v>149</v>
       </c>
-      <c r="P137" s="13">
+      <c r="Q137" s="13">
         <v>273</v>
       </c>
-      <c r="Q137" s="10">
+      <c r="R137" s="10">
         <v>113</v>
       </c>
-      <c r="R137" s="14">
+      <c r="S137" s="14">
         <v>197</v>
       </c>
-      <c r="S137" s="13">
+      <c r="T137" s="13">
         <v>269</v>
       </c>
-      <c r="T137" s="6">
+      <c r="U137" s="6">
         <v>220</v>
       </c>
-      <c r="U137" s="15">
+      <c r="V137" s="15">
         <v>339</v>
       </c>
-      <c r="V137" s="9">
+      <c r="W137" s="9">
         <v>665</v>
       </c>
-      <c r="W137" s="5">
+      <c r="X137" s="5">
         <v>158</v>
       </c>
-      <c r="X137" s="11">
+      <c r="Y137" s="11">
         <v>105</v>
       </c>
-      <c r="Y137" s="16">
+      <c r="Z137" s="16">
         <v>296</v>
       </c>
-      <c r="Z137" s="17">
+      <c r="AA137" s="17">
         <v>133</v>
       </c>
-      <c r="AA137" s="5">
+      <c r="AB137" s="5">
         <v>171</v>
       </c>
-      <c r="AB137" s="18">
+      <c r="AC137" s="18">
         <v>215</v>
       </c>
-      <c r="AC137" s="19">
+      <c r="AD137" s="19">
         <v>314</v>
       </c>
-      <c r="AD137" s="20">
+      <c r="AE137" s="20">
         <v>60</v>
       </c>
-      <c r="AE137" s="7">
+      <c r="AF137" s="7">
         <v>240</v>
       </c>
-      <c r="AF137" s="17">
+      <c r="AG137" s="17">
         <v>128</v>
       </c>
-      <c r="AG137" s="10">
+      <c r="AH137" s="10">
         <v>122</v>
       </c>
-      <c r="AH137" s="21">
+      <c r="AI137" s="21">
         <v>198</v>
       </c>
-      <c r="AI137" s="17">
+      <c r="AJ137" s="17">
         <v>132</v>
       </c>
-      <c r="AJ137" s="20">
+      <c r="AK137" s="20">
         <v>58</v>
       </c>
-      <c r="AK137" s="22">
+      <c r="AL137" s="22">
         <v>86</v>
       </c>
-      <c r="AL137" s="16">
+      <c r="AM137" s="16">
         <v>285</v>
       </c>
-      <c r="AM137" s="20">
+      <c r="AN137" s="20">
         <v>51</v>
       </c>
-      <c r="AN137" s="22">
+      <c r="AO137" s="22">
         <v>85</v>
       </c>
-      <c r="AO137" s="12">
+      <c r="AP137" s="12">
         <v>148</v>
       </c>
-      <c r="AP137" s="20">
+      <c r="AQ137" s="20">
         <v>49</v>
       </c>
-      <c r="AQ137" s="22">
+      <c r="AR137" s="22">
         <v>83</v>
       </c>
-      <c r="AR137" s="21">
+      <c r="AS137" s="21">
         <v>202</v>
       </c>
-      <c r="AS137" s="22">
+      <c r="AT137" s="22">
         <v>85</v>
       </c>
-      <c r="AT137" s="20">
+      <c r="AU137" s="20">
         <v>53</v>
       </c>
-      <c r="AU137" s="17">
+      <c r="AV137" s="17">
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:48">
+    <row r="138" spans="1:49">
       <c r="A138" s="14"/>
       <c r="B138" s="7"/>
     </row>

--- a/sample_info.xlsx
+++ b/sample_info.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="308">
   <si>
     <t>sample_id</t>
   </si>
@@ -466,6 +467,483 @@
   </si>
   <si>
     <t>standard_dev</t>
+  </si>
+  <si>
+    <t>120     120        16        302      9288      20702      47667      167125       2484359       App2_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>54      54         5         421      6359      45234      145820     578782       2442641       App4_10/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>115     115        10        306      4886      22399      71597      202531       2575912       App4_8/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>108     108        8         326      3777      24294      97352      241491       2623804       App6_4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>107     107        13        303      6667      24615      66665      170584       2633853       App6_5/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>99      99         5         325      3333      25781      176528     460592       2552348       Bif1_4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>107     107        13        450      4588      23706      64852      165132       2536621       Bim1-2_S1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>177     177        23        321      6701      14641      37453      109131       2591632       Bim3_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>110     110        16        318      30447     54006      120695     451463       5940710       Bim4_9/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>88      88         10        508      4413      24907      74181      203695       2191848       Choc3-5_S2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>79      79         9         403      5155      28445      79959      237060       2247203       Choc4-2_S3/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>124     124        14        363      4877      21195      66703      121867       2628242       Choc5-1_S4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>68      68         7         464      5574      32067      105607     238257       2180622       Choc6-1_S5/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>118     118        18        329      13505     23239      44896      157591       2742255       Fer1_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>65      65         6         305      5735      37558      153029     294125       2441332       Fer1_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>207     207        32        349      7286      12616      24516      87394        2611703       Fer2_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>53      53         7         301      9263      44505      132767     299989       2358796       Fer2_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>360     360        58        342      4753      6999       11788      42329        2519969       Fer4_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>92      92         6         282      2559      33028      172798     432023       3038600       Fer4_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>162     162        22        363      6753      14765      33677      113195       2392071       GillExp13_S6/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>57      57         7         701      22180     42823      141527     276995       2440913       Gris1-3_S7/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>90      90         16        349      17696     26209      58267      112374       2358864       Gris1-4_S8/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>50      50         6         597      21998     49160      149104     308696       2458027       Gris1-6_S9/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>88      88         11        358      11614     28979      61124      191868       2550193       Gris3_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>48      48         6         331      9426      51126      122377     330455       2454066       Gris3_4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>119     119        12        549      5420      23903      80816      254983       2844464       HK2_S10/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>73      73         7         492      8239      35738      92612      614701       2608943       HK3_S11/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>138     138        15        520      5533      20524      59720      208448       2832448       HK7_S12/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>110     110        7         303      2898      23369      120216     272954       2570619       HK9x_S13/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>142     142        20        407      8494      16622      34994      110047       2360395       Imp1-1_S14/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>91      91         17        467      19499     24940      45049      112921       2269603       Imp1-6_S15/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>686     686        84        339      4068      7289       12447      153661       5000667       M1-1S_S16/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>11      11         3         1824     185628    217158     342893     684876       2388742       M1-2G_S17/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>901     901        21        306      1493      4759       31998      266376       4288746       M1-3S_S18/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>1705    1705       149       302      1600      3344       5904       159960       5701978       M3-1G_S19/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>83      83         3         305      583       34024      422806     571087       2824058       M6-1G_S20/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>84      84         5         315      748       32234      192629     381896       2707707       M6-3G_S21/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>931     931        35        302      1745      4792       17107      209891       4462270       M7-1S_S22/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>41      41         4         302      1543      49489      222700     428191       2029078       MRS3-2_S23/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>94      94         10        301      7497      30491      88574      262527       2866229       Nev3_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>133     133        10        302      3336      21316      75458      298627       2835116       Nev3CBA3/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>89      89         8         315      4724      29011      95658      376562       2582032       Nev4_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>93      93         13        375      9177      29176      74914      138276       2713378       Nev5_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>103     103        11        530      8841      26121      70613      230445       2690475       Nev6_6/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>36      36         7         331      43313     62021      101835     240135       2232791       Occ3_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>53      53         6         305      5725      46910      151012     368096       2486264       Occ4_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>125     125        13        300      6752      21474      56684      209684       2684349       Occ4_3/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>2781    2781       200       300      1168      2671       5911       351042       7430305       P46G_S24/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>56      56         8         330      25579     55488      129582     263540       3107330       P54G_S25/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>20      20         5         973      117582    127455     172591     441217       2549107       P62G_S26/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>63      63         9         846      16237     40949      100814     212927       2579840       P71S_S27/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>91      91         14        585      12591     28216      59207      170177       2567740       P78S_S28/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>30      30         5         334      37857     83114      230310     367417       2493448       P83G_S29/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>31      31         6         392      56298     89104      147429     451901       2762224       Ruf1_X/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>67      67         7         302      3854      38858      133888     333881       2603503       WF3_3/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>61      61         7         360      3595      46678      165092     345860       2847396       WF3_4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>90      90         10        333      11093     34132      100253     240323       3071959       wkB108/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>23      23         5         378      69554     91657      158900     301146       2108121       wkB10_S30/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>22      22         3         325      19500     115104     293117     614553       2532308       wkB112/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>59      59         5         306      6171      45269      144296     653009       2670926       wkB171/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>17      17         2         363      1198      139395     588434     882024       2369726       wkB178/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>25      25         6         331      101075    105199     172902     386079       2629986       wkB180B/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>114     114        13        378      5221      20777      67286      139478       2368691       wkB18_S31/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>38      38         7         635      49635     65815      101351     445408       2500996       wkB195/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>1731    1731       16        300      702       2453       45404      316504       4246602       wkB233A/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>20      20         3         302      39041     116062     327688     770891       2321244       wkB237A/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>31      31         2         318      11139     74772      335346     925894       2317961       wkB273/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>85      85         11        333      12502     32247      98188      183780       2741062       wkB292/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>40      40         3         315      7033      58443      300195     569578       2337725       wkB298B/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>59      59         5         313      3350      47015      205333     443837       2773905       wkB301A/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>45      45         4         331      5709      60779      195029     569688       2735056       wkB308/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>32      32         3         301      844       70358      347325     564176       2251466       wkB309/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>27      27         3         325      5168      92009      502922     619383       2484262       wkB332/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>49      49         6         306      7064      44815      148114     390730       2195981       wkB338/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>28      28         3         382      24562     89326      431105     619082       2501155       wkB339/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>25      25         3         200      2366      83490      389556     520789       2087267       wkB344/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>79      79         8         671      7359      36613      101681     342593       2892488       wkB7_S32/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>15      15         2         300      67139     127995     427270     689039       1919931       wkB8_S33/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>15      15         2         365      80213     169902     663898     795200       2548535       wkB9_S34/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>88      88         11        336      13022     27477      65999      220168       2417979       App2_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>133     133        17        302      7582      18670      47492      127040       2483238       App2_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>65      65         8         421      6765      37577      91199      470846       2442528       App4_10/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>124     124        11        306      4715      20770      68924      183718       2575522       App4_8/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>118     118        9         326      3482      22231      97201      235789       2623279       App6_4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>113     113        13        303      6078      23304      66665      170177       2633370       App6_5/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>107     107        5         325      2788      23847      176528     460592       2551649       Bif1_4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>107     107        13        450      4588      23706      64852      165132       2536621       Bim1-2_S1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>206     206        27        320      5106      12575      27739      109131       2590578       Bim3_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>122     122        18        318      30447     48695      91076      335733       5940791       Bim4_9/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>88      88         10        508      4413      24907      74181      203695       2191848       Choc3-5_S2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>80      80         9         200      5155      28095      79959      237060       2247601       Choc4-2_S3/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>124     124        14        363      4877      21195      66703      121867       2628242       Choc5-1_S4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>68      68         7         464      5574      32067      105607     238257       2180622       Choc6-1_S5/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>145     145        22        329      11492     18906      34438      145778       2741462       Fer1_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>65      65         6         305      5735      37558      153029     294125       2441332       Fer1_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>265     265        40        301      5304      9847       18893      76002        2609657       Fer2_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>54      54         7         301      9263      43678      132767     299989       2358656       Fer2_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>459     459        76        308      3462      5481       8819       41071        2516111       Fer4_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>101     101        6         200      1933      30077      172798     432023       3037833       Fer4_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>162     162        22        363      6753      14765      33677      113195       2392071       GillExp13_S6/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>57      57         7         701      22180     42823      141527     276995       2440913       Gris1-3_S7/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>90      90         16        349      17696     26209      58267      112374       2358864       Gris1-4_S8/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>50      50         6         597      21998     49160      149104     308696       2458027       Gris1-6_S9/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>103     103        14        358      10297     24753      55963      191868       2549603       Gris3_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>48      48         6         331      9426      51126      122377     330455       2454066       Gris3_4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>119     119        12        549      5420      23903      80816      254983       2844464       HK2_S10/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>74      74         7         492      8239      35254      92612      614701       2608812       HK3_S11/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>138     138        15        520      5533      20524      59720      208448       2832448       HK7_S12/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>110     110        7         303      2898      23369      120216     272954       2570619       HK9x_S13/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>142     142        20        407      8494      16622      34994      110047       2360395       Imp1-1_S14/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>91      91         17        467      19499     24940      45049      112921       2269603       Imp1-6_S15/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>688     688        85        339      4068      7268       12429      153661       5000604       M1-1S_S16/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>11      11         3         1824     185628    217158     342893     684876       2388742       M1-2G_S17/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>905     905        21        306      1488      4738       31998      266376       4288698       M1-3S_S18/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>1709    1709       149       302      1591      3336       5904       159960       5701948       M3-1G_S19/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>83      83         3         305      583       34024      422806     571087       2824058       M6-1G_S20/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>85      85         6         315      748       31857      177228     381896       2707853       M6-3G_S21/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>937     937        35        302      1734      4762       17107      209891       4462244       M7-1S_S22/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>42      42         4         302      1574      48311      190435     428191       2029076       MRS3-2_S23/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>97      97         11        301      7793      29548      88574      173002       2866180       Nev3_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>144     144        12        302      2803      19685      69750      298627       2834731       Nev3CBA3/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>92      92         8         315      4674      28060      95658      376562       2581566       Nev4_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>100     100        14        375      9646      27131      68270      138276       2713193       Nev5_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>135     135        18        300      8400      19927      43869      190460       2690257       Nev6_6/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>38      38         8         331      41453     58756      101523     201490       2232752       Occ3_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>54      54         6         305      5725      46040      151012     368096       2486181       Occ4_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>147     147        16        300      5980      18261      48971      170172       2684502       Occ4_3/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>2793    2793       204       300      1163      2660       5899       351042       7430384       P46G_S24/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>57      57         8         330      20198     54514      129582     263540       3107329       P54G_S25/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>20      20         5         973      117582    127455     172591     441217       2549107       P62G_S26/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>63      63         9         846      16237     40949      100814     212927       2579840       P71S_S27/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>91      91         14        585      12591     28216      59207      170177       2567740       P78S_S28/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>31      31         5         334      37857     80439      168685     367417       2493621       P83G_S29/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>32      32         6         392      56298     86316      147429     451901       2762133       Ruf1_X/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>72      72         7         302      3854      36161      133888     333881       2603628       WF3_3/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>63      63         7         360      3420      45195      165092     345860       2847289       WF3_4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>113     113        12        333      5959      27180      79775      239431       3071341       wkB108/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>24      24         6         378      69554     87836      142482     301146       2108084       wkB10_S30/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>22      22         3         325      19500     115104     293117     614553       2532308       wkB112/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>69      69         6         306      8389      38705      144296     504526       2670660       wkB171/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>17      17         2         363      1198      139395     588434     882024       2369726       wkB178/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>26      26         6         331      101075    101153     165551     386079       2629995       wkB180B/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>114     114        13        378      5221      20777      67286      139478       2368691       wkB18_S31/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>43      43         7         635      38352     58159      101351     445408       2500871       wkB195/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>2122    2122       16        300      585       1989       45404      316504       4221961       wkB233A/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>23      23         3         302      19454     100950     327688     730172       2321858       wkB237A/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>32      32         2         253      11139     72442      335346     925894       2318154       wkB273/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>123     123        12        331      6801      22272      75796      168008       2739530       wkB292/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>43      43         3         315      5685      54364      300195     569578       2337689       wkB298B/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>63      63         5         313      2371      44020      205333     443837       2773264       wkB301A/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>46      46         4         331      5709      59457      191900     569688       2735056       wkB308/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>33      33         3         301      836       68215      347325     564176       2251102       wkB309/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>29      29         3         325      2061      85663      502922     619383       2484243       wkB332/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>63      63         6         306      5020      34851      145608     390730       2195618       wkB338/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>28      28         3         382      24562     89326      431105     619082       2501155       wkB339/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>26      26         3         200      2414      80279      335732     456063       2087277       wkB344/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>80      80         9         671      11580     36155      97284      342593       2892468       wkB7_S32/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>15      15         2         300      67139     127995     427270     689039       1919931       wkB8_S33/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>15      15         2         365      80213     169902     663898     795200       2548535       wkB9_S34/CA/9-terminator/genome.ctg.fasta</t>
   </si>
 </sst>
 </file>
@@ -654,8 +1132,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -732,11 +1212,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1069,7 +1551,7 @@
   <dimension ref="A1:AW138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1150,7 +1632,7 @@
         <v>250</v>
       </c>
       <c r="K3">
-        <v>300</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2632,6 +3114,664 @@
     <row r="138" spans="1:49">
       <c r="A138" s="14"/>
       <c r="B138" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="K40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="K47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="K57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="K58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="K60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>209</v>
+      </c>
+      <c r="K61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="K62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>211</v>
+      </c>
+      <c r="K63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="K64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+      <c r="K66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="K67" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="K68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>217</v>
+      </c>
+      <c r="K69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>218</v>
+      </c>
+      <c r="K70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+      <c r="K72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>221</v>
+      </c>
+      <c r="K73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="K76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>225</v>
+      </c>
+      <c r="K77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="K78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="K79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="K80" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_info.xlsx
+++ b/sample_info.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="25600" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="25600" windowHeight="19660" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="gap-close and terminator info" sheetId="3" r:id="rId2"/>
+    <sheet name="RAST IDs" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="379">
   <si>
     <t>sample_id</t>
   </si>
@@ -418,9 +419,6 @@
     <t>Species</t>
   </si>
   <si>
-    <t>Taxonomy ID</t>
-  </si>
-  <si>
     <t>Snogdrassella alvi</t>
   </si>
   <si>
@@ -439,12 +437,6 @@
     <t>Does Exp2013 = Exp13?</t>
   </si>
   <si>
-    <t>Lactobacillus</t>
-  </si>
-  <si>
-    <t>Bacteroidetes sp.</t>
-  </si>
-  <si>
     <t>Contamination Possibility</t>
   </si>
   <si>
@@ -469,165 +461,36 @@
     <t>standard_dev</t>
   </si>
   <si>
-    <t>120     120        16        302      9288      20702      47667      167125       2484359       App2_2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>54      54         5         421      6359      45234      145820     578782       2442641       App4_10/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>115     115        10        306      4886      22399      71597      202531       2575912       App4_8/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>108     108        8         326      3777      24294      97352      241491       2623804       App6_4/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>107     107        13        303      6667      24615      66665      170584       2633853       App6_5/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>99      99         5         325      3333      25781      176528     460592       2552348       Bif1_4/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>107     107        13        450      4588      23706      64852      165132       2536621       Bim1-2_S1/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>177     177        23        321      6701      14641      37453      109131       2591632       Bim3_2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>110     110        16        318      30447     54006      120695     451463       5940710       Bim4_9/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>88      88         10        508      4413      24907      74181      203695       2191848       Choc3-5_S2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>79      79         9         403      5155      28445      79959      237060       2247203       Choc4-2_S3/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>124     124        14        363      4877      21195      66703      121867       2628242       Choc5-1_S4/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>68      68         7         464      5574      32067      105607     238257       2180622       Choc6-1_S5/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>118     118        18        329      13505     23239      44896      157591       2742255       Fer1_1/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>65      65         6         305      5735      37558      153029     294125       2441332       Fer1_2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>207     207        32        349      7286      12616      24516      87394        2611703       Fer2_1/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
     <t>53      53         7         301      9263      44505      132767     299989       2358796       Fer2_2/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>360     360        58        342      4753      6999       11788      42329        2519969       Fer4_1/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>92      92         6         282      2559      33028      172798     432023       3038600       Fer4_2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>162     162        22        363      6753      14765      33677      113195       2392071       GillExp13_S6/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>57      57         7         701      22180     42823      141527     276995       2440913       Gris1-3_S7/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>90      90         16        349      17696     26209      58267      112374       2358864       Gris1-4_S8/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>50      50         6         597      21998     49160      149104     308696       2458027       Gris1-6_S9/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>88      88         11        358      11614     28979      61124      191868       2550193       Gris3_2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>48      48         6         331      9426      51126      122377     330455       2454066       Gris3_4/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>119     119        12        549      5420      23903      80816      254983       2844464       HK2_S10/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>73      73         7         492      8239      35738      92612      614701       2608943       HK3_S11/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>138     138        15        520      5533      20524      59720      208448       2832448       HK7_S12/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>110     110        7         303      2898      23369      120216     272954       2570619       HK9x_S13/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>142     142        20        407      8494      16622      34994      110047       2360395       Imp1-1_S14/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>91      91         17        467      19499     24940      45049      112921       2269603       Imp1-6_S15/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>686     686        84        339      4068      7289       12447      153661       5000667       M1-1S_S16/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>11      11         3         1824     185628    217158     342893     684876       2388742       M1-2G_S17/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>901     901        21        306      1493      4759       31998      266376       4288746       M1-3S_S18/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>1705    1705       149       302      1600      3344       5904       159960       5701978       M3-1G_S19/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>83      83         3         305      583       34024      422806     571087       2824058       M6-1G_S20/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>84      84         5         315      748       32234      192629     381896       2707707       M6-3G_S21/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>931     931        35        302      1745      4792       17107      209891       4462270       M7-1S_S22/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>41      41         4         302      1543      49489      222700     428191       2029078       MRS3-2_S23/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>94      94         10        301      7497      30491      88574      262527       2866229       Nev3_1/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>133     133        10        302      3336      21316      75458      298627       2835116       Nev3CBA3/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>89      89         8         315      4724      29011      95658      376562       2582032       Nev4_2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>93      93         13        375      9177      29176      74914      138276       2713378       Nev5_1/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>103     103        11        530      8841      26121      70613      230445       2690475       Nev6_6/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>36      36         7         331      43313     62021      101835     240135       2232791       Occ3_1/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>53      53         6         305      5725      46910      151012     368096       2486264       Occ4_2/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>125     125        13        300      6752      21474      56684      209684       2684349       Occ4_3/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>2781    2781       200       300      1168      2671       5911       351042       7430305       P46G_S24/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>56      56         8         330      25579     55488      129582     263540       3107330       P54G_S25/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>20      20         5         973      117582    127455     172591     441217       2549107       P62G_S26/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>63      63         9         846      16237     40949      100814     212927       2579840       P71S_S27/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>91      91         14        585      12591     28216      59207      170177       2567740       P78S_S28/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>30      30         5         334      37857     83114      230310     367417       2493448       P83G_S29/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>31      31         6         392      56298     89104      147429     451901       2762224       Ruf1_X/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
@@ -637,9 +500,6 @@
     <t>61      61         7         360      3595      46678      165092     345860       2847396       WF3_4/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>90      90         10        333      11093     34132      100253     240323       3071959       wkB108/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>23      23         5         378      69554     91657      158900     301146       2108121       wkB10_S30/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
@@ -649,54 +509,21 @@
     <t>59      59         5         306      6171      45269      144296     653009       2670926       wkB171/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>17      17         2         363      1198      139395     588434     882024       2369726       wkB178/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>25      25         6         331      101075    105199     172902     386079       2629986       wkB180B/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>114     114        13        378      5221      20777      67286      139478       2368691       wkB18_S31/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>38      38         7         635      49635     65815      101351     445408       2500996       wkB195/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
     <t>1731    1731       16        300      702       2453       45404      316504       4246602       wkB233A/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>20      20         3         302      39041     116062     327688     770891       2321244       wkB237A/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>31      31         2         318      11139     74772      335346     925894       2317961       wkB273/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>85      85         11        333      12502     32247      98188      183780       2741062       wkB292/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>40      40         3         315      7033      58443      300195     569578       2337725       wkB298B/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>59      59         5         313      3350      47015      205333     443837       2773905       wkB301A/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>45      45         4         331      5709      60779      195029     569688       2735056       wkB308/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>32      32         3         301      844       70358      347325     564176       2251466       wkB309/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>27      27         3         325      5168      92009      502922     619383       2484262       wkB332/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>49      49         6         306      7064      44815      148114     390730       2195981       wkB338/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>28      28         3         382      24562     89326      431105     619082       2501155       wkB339/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>25      25         3         200      2366      83490      389556     520789       2087267       wkB344/CA/10-gapclose/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>79      79         8         671      7359      36613      101681     342593       2892488       wkB7_S32/CA/10-gapclose/genome.ctg.fasta</t>
   </si>
   <si>
@@ -709,51 +536,12 @@
     <t>88      88         11        336      13022     27477      65999      220168       2417979       App2_1/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>133     133        17        302      7582      18670      47492      127040       2483238       App2_2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>65      65         8         421      6765      37577      91199      470846       2442528       App4_10/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>124     124        11        306      4715      20770      68924      183718       2575522       App4_8/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>118     118        9         326      3482      22231      97201      235789       2623279       App6_4/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>113     113        13        303      6078      23304      66665      170177       2633370       App6_5/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>107     107        5         325      2788      23847      176528     460592       2551649       Bif1_4/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>107     107        13        450      4588      23706      64852      165132       2536621       Bim1-2_S1/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>206     206        27        320      5106      12575      27739      109131       2590578       Bim3_2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>122     122        18        318      30447     48695      91076      335733       5940791       Bim4_9/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>88      88         10        508      4413      24907      74181      203695       2191848       Choc3-5_S2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>80      80         9         200      5155      28095      79959      237060       2247601       Choc4-2_S3/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>124     124        14        363      4877      21195      66703      121867       2628242       Choc5-1_S4/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>68      68         7         464      5574      32067      105607     238257       2180622       Choc6-1_S5/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>145     145        22        329      11492     18906      34438      145778       2741462       Fer1_1/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>65      65         6         305      5735      37558      153029     294125       2441332       Fer1_2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>265     265        40        301      5304      9847       18893      76002        2609657       Fer2_1/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
@@ -763,111 +551,24 @@
     <t>459     459        76        308      3462      5481       8819       41071        2516111       Fer4_1/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>101     101        6         200      1933      30077      172798     432023       3037833       Fer4_2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>162     162        22        363      6753      14765      33677      113195       2392071       GillExp13_S6/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>57      57         7         701      22180     42823      141527     276995       2440913       Gris1-3_S7/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>90      90         16        349      17696     26209      58267      112374       2358864       Gris1-4_S8/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>50      50         6         597      21998     49160      149104     308696       2458027       Gris1-6_S9/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>103     103        14        358      10297     24753      55963      191868       2549603       Gris3_2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>48      48         6         331      9426      51126      122377     330455       2454066       Gris3_4/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>119     119        12        549      5420      23903      80816      254983       2844464       HK2_S10/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>74      74         7         492      8239      35254      92612      614701       2608812       HK3_S11/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>138     138        15        520      5533      20524      59720      208448       2832448       HK7_S12/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>110     110        7         303      2898      23369      120216     272954       2570619       HK9x_S13/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>142     142        20        407      8494      16622      34994      110047       2360395       Imp1-1_S14/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>91      91         17        467      19499     24940      45049      112921       2269603       Imp1-6_S15/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>688     688        85        339      4068      7268       12429      153661       5000604       M1-1S_S16/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>11      11         3         1824     185628    217158     342893     684876       2388742       M1-2G_S17/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>905     905        21        306      1488      4738       31998      266376       4288698       M1-3S_S18/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>1709    1709       149       302      1591      3336       5904       159960       5701948       M3-1G_S19/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>83      83         3         305      583       34024      422806     571087       2824058       M6-1G_S20/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>85      85         6         315      748       31857      177228     381896       2707853       M6-3G_S21/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>937     937        35        302      1734      4762       17107      209891       4462244       M7-1S_S22/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>42      42         4         302      1574      48311      190435     428191       2029076       MRS3-2_S23/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>97      97         11        301      7793      29548      88574      173002       2866180       Nev3_1/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>144     144        12        302      2803      19685      69750      298627       2834731       Nev3CBA3/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>92      92         8         315      4674      28060      95658      376562       2581566       Nev4_2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>100     100        14        375      9646      27131      68270      138276       2713193       Nev5_1/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>135     135        18        300      8400      19927      43869      190460       2690257       Nev6_6/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>38      38         8         331      41453     58756      101523     201490       2232752       Occ3_1/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>54      54         6         305      5725      46040      151012     368096       2486181       Occ4_2/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>147     147        16        300      5980      18261      48971      170172       2684502       Occ4_3/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>2793    2793       204       300      1163      2660       5899       351042       7430384       P46G_S24/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>57      57         8         330      20198     54514      129582     263540       3107329       P54G_S25/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>20      20         5         973      117582    127455     172591     441217       2549107       P62G_S26/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>63      63         9         846      16237     40949      100814     212927       2579840       P71S_S27/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>91      91         14        585      12591     28216      59207      170177       2567740       P78S_S28/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>31      31         5         334      37857     80439      168685     367417       2493621       P83G_S29/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>32      32         6         392      56298     86316      147429     451901       2762133       Ruf1_X/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
@@ -877,9 +578,6 @@
     <t>63      63         7         360      3420      45195      165092     345860       2847289       WF3_4/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>113     113        12        333      5959      27180      79775      239431       3071341       wkB108/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>24      24         6         378      69554     87836      142482     301146       2108084       wkB10_S30/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
@@ -889,54 +587,21 @@
     <t>69      69         6         306      8389      38705      144296     504526       2670660       wkB171/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>17      17         2         363      1198      139395     588434     882024       2369726       wkB178/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>26      26         6         331      101075    101153     165551     386079       2629995       wkB180B/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>114     114        13        378      5221      20777      67286      139478       2368691       wkB18_S31/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>43      43         7         635      38352     58159      101351     445408       2500871       wkB195/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
     <t>2122    2122       16        300      585       1989       45404      316504       4221961       wkB233A/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>23      23         3         302      19454     100950     327688     730172       2321858       wkB237A/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>32      32         2         253      11139     72442      335346     925894       2318154       wkB273/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>123     123        12        331      6801      22272      75796      168008       2739530       wkB292/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>43      43         3         315      5685      54364      300195     569578       2337689       wkB298B/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>63      63         5         313      2371      44020      205333     443837       2773264       wkB301A/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>46      46         4         331      5709      59457      191900     569688       2735056       wkB308/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>33      33         3         301      836       68215      347325     564176       2251102       wkB309/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>29      29         3         325      2061      85663      502922     619383       2484243       wkB332/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>63      63         6         306      5020      34851      145608     390730       2195618       wkB338/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
-    <t>28      28         3         382      24562     89326      431105     619082       2501155       wkB339/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
-    <t>26      26         3         200      2414      80279      335732     456063       2087277       wkB344/CA/9-terminator/genome.ctg.fasta</t>
-  </si>
-  <si>
     <t>80      80         9         671      11580     36155      97284      342593       2892468       wkB7_S32/CA/9-terminator/genome.ctg.fasta</t>
   </si>
   <si>
@@ -944,13 +609,562 @@
   </si>
   <si>
     <t>15      15         2         365      80213     169902     663898     795200       2548535       wkB9_S34/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>velvet assemblies (interleaved folder) are labeled on RAST with sample id</t>
+  </si>
+  <si>
+    <t>n       n:100      n:N50     min      median    mean       N50        max          sum</t>
+  </si>
+  <si>
+    <t>132     132        17        302      7752      18808      47492      127040       2482771       App2_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>64      64         8         421      7036      38035      91199      468575       2434273       App4_10/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>124     124        11        306      4730      20784      68924      183718       2577334       App4_8/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>117     117        9         326      3498      22418      97201      235789       2623004       App6_4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>112     112        13        303      6086      23512      66665      170177       2633452       App6_5/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>105     105        5         325      2851      24294      176528     460592       2550913       Bif1_4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>107     107        12        450      3848      23714      71558      166138       2537475       Bim1-2_S1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>206     206        27        320      5106      12581      27739      109131       2591724       Bim3_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>89      89         10        508      4229      24640      74181      203695       2193011       Choc3-5_S2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>79      79         9         200      5155      28446      79959      237060       2247282       Choc4-2_S3/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>125     125        14        363      4490      21026      66703      121867       2628355       Choc5-1_S4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>145     145        22        329      11492     18900      34438      145778       2740544       Fer1_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>66      66         6         305      5735      37010      153029     294125       2442708       Fer1_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>97      97         6         294      1968      31286      172798     432023       3034776       Fer4_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>163     163        22        363      6404      14676      33677      113195       2392232       GillExp13_S6/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>58      58         7         701      22180     42102      128979     276995       2441972       Gris1-3_S7/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>50      50         6         597      17802     49194      149104     308696       2459710       Gris1-6_S9/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>104     104        14        358      10297     24537      55963      191293       2551937       Gris3_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>48      48         6         331      8146      51108      122377     330455       2453208       Gris3_4/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>117     117        13        549      5546      24301      79103      254983       2843330       HK2_S10/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>75      75         7         314      7942      34787      92612      618239       2609067       HK3_S11/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>137     137        15        520      5533      20672      59720      208448       2832078       HK7_S12/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>110     110        7         303      2782      23351      120216     272954       2568638       HK9x_S13/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>141     141        20        407      8494      16735      34994      110047       2359762       Imp1-1_S14/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>688     688        85        339      4068      7268       12429      153661       5000762       M1-1S_S16/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>10      10         3         2078     241517    238882     342893     685108       2388823       M1-2G_S17/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>906     906        21        306      1488      4734       31998      266376       4289024       M1-3S_S18/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>1708    1708       149       302      1594      3338       5904       159960       5702021       M3-1G_S19/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>87      87         6         315      756       31150      177228     381896       2710051       M6-3G_S21/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>938     938        36        302      1739      4763       16653      209891       4468287       M7-1S_S22/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>96      96         11        301      7793      29765      103467     173002       2857463       Nev3_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>141     141        11        302      3008      20088      75458      298627       2832433       Nev3CBA3/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>93      93         8         315      4561      27768      95658      376562       2582500       Nev4_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>101     101        14        375      9177      26864      68270      138276       2713307       Nev5_1/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>135     135        18        300      8400      19921      43869      190460       2689410       Nev6_6/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>55      55         6         305      5400      45254      151012     368096       2488985       Occ4_2/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>145     145        16        300      6331      18525      48971      170172       2686183       Occ4_3/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>2793    2793       204       300      1163      2660       5899       351042       7430913       P46G_S24/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>57      57         8         330      20198     54506      129582     263540       3106886       P54G_S25/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>20      20         5         973      117582    127455     172591     441217       2549106       P62G_S26/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>93      93         14        585      11845     27616      59207      170177       2568358       P78S_S28/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>30      30         5         334      45059     83167      168685     367417       2495029       P83G_S29/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>129     129        13        322      3952      23846      77698      197583       3076170       wkB108/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>16      16         2         363      1778      148064     588434     882024       2369030       wkB178/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>113     113        13        378      5301      20991      67286      139478       2371993       wkB18_S31/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>22      22         3         302      39041     105495     327688     730172       2320890       wkB237A/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>32      32         2         253      10782     72428      335346     925894       2317704       wkB273/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>123     123        12        331      6801      22273      75796      168008       2739649       wkB292/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>45      45         3         292      3177      51960      300195     569578       2338232       wkB298B/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>63      63         5         313      2371      43984      205333     443837       2771052       wkB301A/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>47      47         4         331      4900      58236      191900     569688       2737107       wkB308/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>32      32         3         325      2023      77731      502922     619383       2487400       wkB332/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>27      27         3         382      24562     92589      431105     619082       2499917       wkB339/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>28      28         3         200      2414      74642      335732     456063       2089999       wkB344/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>32      32         4         324      2911      80342      211521     627210       2570971       wkB72/CA/9-terminator/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>73      73         9         336      14200     33129      71484      220168       2418433       App2_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>119     119        16        302      9288      20873      47667      167125       2483892       App2_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>53      53         5         421      6359      45931      145820     576511       2434386       App4_10/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>115     115        10        306      5505      22414      71597      202531       2577724       App4_8/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>108     108        8         326      3656      24290      97352      241491       2623320       App6_4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>106     106        13        303      7146      24848      66665      170584       2633935       App6_5/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>98      98         5         325      3398      26036      176528     460592       2551594       Bif1_4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>107     107        12        450      3848      23714      71558      166138       2537475       Bim1-2_S1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>177     177        23        321      6701      14648      37453      109131       2592778       Bim3_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>89      89         10        508      4229      24640      74181      203695       2193011       Choc3-5_S2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>78      78         9         405      5460      28808      79959      237060       2247082       Choc4-2_S3/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>125     125        14        363      4490      21026      66703      121867       2628355       Choc5-1_S4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>118     118        18        329      13505     23231      44896      157591       2741337       Fer1_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>66      66         6         305      5735      37010      153029     294125       2442708       Fer1_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>360     360        58        342      4727      7000       12144      42329        2520134       Fer4_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>90      90         6         294      2559      33732      172798     432023       3035907       Fer4_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>163     163        22        363      6404      14676      33677      113195       2392232       GillExp13_S6/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>58      58         7         701      22180     42102      128979     276995       2441972       Gris1-3_S7/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>50      50         6         597      17802     49194      149104     308696       2459710       Gris1-6_S9/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>89      89         11        358      10297     28680      61124      191293       2552527       Gris3_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>48      48         6         331      8146      51108      122377     330455       2453208       Gris3_4/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>117     117        13        549      5546      24301      79103      254983       2843330       HK2_S10/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>74      74         7         314      8239      35259      92612      618239       2609198       HK3_S11/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>137     137        15        520      5533      20672      59720      208448       2832078       HK7_S12/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>110     110        7         303      2782      23351      120216     272954       2568638       HK9x_S13/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>141     141        20        407      8494      16735      34994      110047       2359762       Imp1-1_S14/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>686     686        84        339      4068      7289       12447      153661       5000825       M1-1S_S16/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>10      10         3         2078     241517    238882     342893     685108       2388823       M1-2G_S17/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>902     902        21        306      1493      4755       31998      266376       4289072       M1-3S_S18/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>1704    1704       149       302      1600      3346       5904       159960       5702051       M3-1G_S19/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>86      86         5         315      756       31510      191995     381896       2709905       M6-3G_S21/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>932     932        36        302      1750      4794       16653      209891       4468313       M7-1S_S22/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>93      93         10        301      7034      30725      106933     257915       2857512       Nev3_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>131     131        10        302      3514      21623      75458      298627       2832650       Nev3CBA3/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>90      90         8         315      4724      28699      95658      376562       2582966       Nev4_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>94      94         13        375      9177      28866      74914      138276       2713492       Nev5_1/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>103     103        11        530      8841      26112      70613      230445       2689628       Nev6_6/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>54      54         6         305      5725      46093      151012     368096       2489068       Occ4_2/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>124     124        13        300      7978      21663      56684      209684       2686218       Occ4_3/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>2781    2781       200       300      1168      2672       5911       351042       7430834       P46G_S24/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>56      56         8         330      25579     55480      129582     263540       3106887       P54G_S25/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>20      20         5         973      117582    127455     172591     441217       2549106       P62G_S26/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>93      93         14        585      11845     27616      59207      170177       2568358       P78S_S28/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>29      29         5         334      40022     86029      230310     367417       2494856       P83G_S29/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>104     104        12        322      6941      29585      84874      197583       3076915       wkB108/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>16      16         2         363      1778      148064     588434     882024       2369030       wkB178/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>113     113        13        378      5301      20991      67286      139478       2371993       wkB18_S31/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>21      21         3         302      39041     110524     327688     730172       2321012       wkB237A/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>31      31         2         318      10782     74758      335346     925894       2317511       wkB273/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>85      85         11        333      12502     32249      98188      183780       2741181       wkB292/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>42      42         3         315      5685      55673      300195     569578       2338271       wkB298B/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>59      59         5         313      3350      46977      205333     443837       2771693       wkB301A/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>46      46         4         331      5709      59502      195029     569688       2737107       wkB308/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>30      30         3         325      2143      82913      502922     619383       2487419       wkB332/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>27      27         3         382      24562     92589      431105     619082       2499917       wkB339/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>27      27         3         200      2366      77407      389556     520790       2089989       wkB344/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>30      30         4         324      2911      85694      213610     627210       2570834       wkB72/CA/10-gapclose/genome.ctg.fasta</t>
+  </si>
+  <si>
+    <t>masurca assemblies are labeled with m_sample id on RAST, the gap_close is used (though this can be identical to terminator, on the machine the assembly was run I believe it hyperlinks a gap close .fasta which offers no improvement to the terminator .fasta and that these hyperlinks broke when it was downloaded, I downloaded the genome.ctg.fasta in the gap-close folder again from the machine and used that but terminator should be identical in these cases</t>
+  </si>
+  <si>
+    <t>Had to use the actual terminator file because the ID that were too long for RAST were present</t>
+  </si>
+  <si>
+    <t>MaSuRCA</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Bim1-2</t>
+  </si>
+  <si>
+    <t>Choc3-5</t>
+  </si>
+  <si>
+    <t>Choc4-2</t>
+  </si>
+  <si>
+    <t>RAST ID - See Sheet 3</t>
+  </si>
+  <si>
+    <t>Gris1-3</t>
+  </si>
+  <si>
+    <t>Gris1-4</t>
+  </si>
+  <si>
+    <t>Gris1-6</t>
+  </si>
+  <si>
+    <t>HK2</t>
+  </si>
+  <si>
+    <t>HK3</t>
+  </si>
+  <si>
+    <t>HK7</t>
+  </si>
+  <si>
+    <t>HK9x</t>
+  </si>
+  <si>
+    <t>Imp1-1</t>
+  </si>
+  <si>
+    <t>Imp1-6</t>
+  </si>
+  <si>
+    <t>App2-1</t>
+  </si>
+  <si>
+    <t>App2-2</t>
+  </si>
+  <si>
+    <t>App4-8</t>
+  </si>
+  <si>
+    <t>App4-10</t>
+  </si>
+  <si>
+    <t>App6-4</t>
+  </si>
+  <si>
+    <t>Bim4-9</t>
+  </si>
+  <si>
+    <t>Bim3-2</t>
+  </si>
+  <si>
+    <t>Bif1-4</t>
+  </si>
+  <si>
+    <t>App6-5</t>
+  </si>
+  <si>
+    <t>Choc5-1</t>
+  </si>
+  <si>
+    <t>Choc6-1</t>
+  </si>
+  <si>
+    <t>Fer1-1</t>
+  </si>
+  <si>
+    <t>Fer1-2</t>
+  </si>
+  <si>
+    <t>Fer2-1</t>
+  </si>
+  <si>
+    <t>Fer2-2</t>
+  </si>
+  <si>
+    <t>Fer4-1</t>
+  </si>
+  <si>
+    <t>Fer4-2</t>
+  </si>
+  <si>
+    <t>Unknown sp</t>
+  </si>
+  <si>
+    <t>Lactobacillus sp</t>
+  </si>
+  <si>
+    <t>Bacteroidetes sp</t>
+  </si>
+  <si>
+    <t>WF3-4</t>
+  </si>
+  <si>
+    <t>WF3-3</t>
+  </si>
+  <si>
+    <t>Ruf1-X</t>
+  </si>
+  <si>
+    <t>M1-1S</t>
+  </si>
+  <si>
+    <t>M1-2G</t>
+  </si>
+  <si>
+    <t>M1-3S</t>
+  </si>
+  <si>
+    <t>M3-1G</t>
+  </si>
+  <si>
+    <t>M6-1G</t>
+  </si>
+  <si>
+    <t>M6-3G</t>
+  </si>
+  <si>
+    <t>M7-1S</t>
+  </si>
+  <si>
+    <t>MRS3-2</t>
+  </si>
+  <si>
+    <t>GillExp13</t>
+  </si>
+  <si>
+    <t>wkB18</t>
+  </si>
+  <si>
+    <t>wkB10</t>
+  </si>
+  <si>
+    <t>wkB9</t>
+  </si>
+  <si>
+    <t>wkB8</t>
+  </si>
+  <si>
+    <t>wkB7</t>
+  </si>
+  <si>
+    <t>P83G</t>
+  </si>
+  <si>
+    <t>P78S</t>
+  </si>
+  <si>
+    <t>P71S</t>
+  </si>
+  <si>
+    <t>P62G</t>
+  </si>
+  <si>
+    <t>P54G</t>
+  </si>
+  <si>
+    <t>P46G</t>
+  </si>
+  <si>
+    <t>Occ4-3</t>
+  </si>
+  <si>
+    <t>Occ4-2</t>
+  </si>
+  <si>
+    <t>Occ3-1</t>
+  </si>
+  <si>
+    <t>Nev6-6</t>
+  </si>
+  <si>
+    <t>Nev5-1</t>
+  </si>
+  <si>
+    <t>Nev4-2</t>
+  </si>
+  <si>
+    <t>Nev3-1</t>
+  </si>
+  <si>
+    <t>Gris3-2</t>
+  </si>
+  <si>
+    <t>Gris3-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -987,6 +1201,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1132,7 +1355,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1140,8 +1363,472 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1211,14 +1898,480 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="471">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1550,15 +2703,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -1574,19 +2727,19 @@
         <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1597,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I2">
         <v>280</v>
@@ -1620,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3">
         <v>700</v>
@@ -1643,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1654,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1665,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1675,11 +2828,14 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s">
-        <v>138</v>
+      <c r="G7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1690,7 +2846,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1701,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1712,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1723,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1734,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1745,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1755,11 +2914,11 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
         <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1770,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1781,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1791,8 +2950,11 @@
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1803,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1814,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1827,8 +2989,11 @@
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20" t="s">
+        <v>344</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1838,6 +3003,9 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -1847,10 +3015,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1860,8 +3028,11 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23" t="s">
+        <v>344</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1871,6 +3042,9 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -1879,8 +3053,11 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25" t="s">
+        <v>344</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1891,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1902,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1912,6 +3089,9 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="C28" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -1920,6 +3100,9 @@
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
@@ -1929,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1939,6 +3122,9 @@
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
@@ -1948,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1959,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1970,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1981,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1991,6 +3177,9 @@
       <c r="B36">
         <v>2.1</v>
       </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
@@ -1999,6 +3188,9 @@
       <c r="B37">
         <v>2.1</v>
       </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
@@ -2007,6 +3199,9 @@
       <c r="B38">
         <v>2.1</v>
       </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
@@ -2015,6 +3210,9 @@
       <c r="B39">
         <v>2.1</v>
       </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
@@ -2023,6 +3221,9 @@
       <c r="B40">
         <v>2.1</v>
       </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
@@ -2031,6 +3232,9 @@
       <c r="B41">
         <v>2.1</v>
       </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
@@ -2039,6 +3243,9 @@
       <c r="B42">
         <v>2.1</v>
       </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
@@ -2047,6 +3254,9 @@
       <c r="B43">
         <v>2.1</v>
       </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
@@ -2055,6 +3265,9 @@
       <c r="B44">
         <v>2.1</v>
       </c>
+      <c r="C44" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
@@ -2063,6 +3276,9 @@
       <c r="B45">
         <v>2.1</v>
       </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
@@ -2071,6 +3287,9 @@
       <c r="B46">
         <v>2.1</v>
       </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
@@ -2079,6 +3298,9 @@
       <c r="B47">
         <v>2.1</v>
       </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
@@ -2087,128 +3309,176 @@
       <c r="B48">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2216,10 +3486,13 @@
         <v>2.1</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2227,10 +3500,10 @@
         <v>2.1</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2238,10 +3511,10 @@
         <v>2.1</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2249,10 +3522,10 @@
         <v>2.1</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2260,10 +3533,10 @@
         <v>2.1</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2271,10 +3544,10 @@
         <v>2.1</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2282,10 +3555,10 @@
         <v>2.1</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2293,10 +3566,13 @@
         <v>2.1</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="E71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2304,10 +3580,10 @@
         <v>2.1</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2315,10 +3591,10 @@
         <v>2.1</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2326,10 +3602,10 @@
         <v>2.1</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2337,10 +3613,10 @@
         <v>2.1</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2348,10 +3624,10 @@
         <v>2.1</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2359,10 +3635,10 @@
         <v>2.1</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2370,10 +3646,10 @@
         <v>2.1</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2381,15 +3657,18 @@
         <v>2.1</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>2.1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2400,7 +3679,7 @@
         <v>2.1</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2410,6 +3689,9 @@
       <c r="B82" s="1">
         <v>2.1</v>
       </c>
+      <c r="C82" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
@@ -2419,7 +3701,7 @@
         <v>2.1</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2800,7 +4082,7 @@
     </row>
     <row r="133" spans="1:49">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133">
         <f>AVERAGE(A134:AW134)</f>
@@ -2960,7 +4242,7 @@
     </row>
     <row r="136" spans="1:49">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <f>AVERAGE(A137:AV137)</f>
@@ -3128,649 +4410,1835 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="K5" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="K6" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="K7" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="K8" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="K10" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="K12" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="K13" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="K14" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="K17" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="K42" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="K46" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K47" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="K50" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="K51" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="K52" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K53" t="s">
-        <v>280</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="K54" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="K55" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="K56" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="K58" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K59" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="K60" t="s">
-        <v>287</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="K61" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="K62" t="s">
-        <v>289</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="K63" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K64" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K65" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="K67" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K68" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K69" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K70" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="K71" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K72" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K73" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="K74" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K75" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="K76" t="s">
-        <v>303</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K77" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K78" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K79" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>193</v>
+      </c>
       <c r="K80" t="s">
-        <v>307</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+      <c r="K81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="K82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>6666666.1646560002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>6666666.164446</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1196083.71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>1196083.47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>6666666.1646509999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>6666666.1644449998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1196083.7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5">
+        <v>1196083.46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>200643.1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>200643.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1196095.135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7">
+        <v>1196095.93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>200643.9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>200643.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1196083.69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <v>1196083.45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1196095.1340000001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <v>1196095.92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1196083.68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>1196083.44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1196083.67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12">
+        <v>1196083.43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1196095.1329999999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>1196095.9099999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1196095.132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>1196095.8999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>200643.8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15">
+        <v>200643.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1196095.1310000001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>1196095.8899999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1196095.1299999999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17">
+        <v>1196095.8799999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1196095.129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>1196095.8700000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1196095.128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19">
+        <v>1196095.8600000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1196095.1270000001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <v>1196095.8500000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1196095.1259999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21">
+        <v>1196095.8400000001</v>
+      </c>
+      <c r="F21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>6666666.1646499997</v>
+      </c>
+      <c r="B22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E22">
+        <v>1196083.42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1196083.6599999999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23">
+        <v>1196083.4099999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1578.8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24">
+        <v>1196095.83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1196095.125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25">
+        <v>1196083.3999999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1196095.1240000001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E26">
+        <v>1196095.82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>1196083.6499999999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27">
+        <v>1196095.81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1196083.6399999999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28">
+        <v>1196095.8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1196095.1229999999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29">
+        <v>1196083.3899999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>6666666.1646480002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E30">
+        <v>1196083.3799999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>6666666.1646469999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31">
+        <v>1196095.79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>1196095.122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32">
+        <v>1196083.3700000001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>1196095.121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33">
+        <v>1196095.78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>6666666.1646459997</v>
+      </c>
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+      <c r="E34">
+        <v>1196083.3600000001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>1196095.1200000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E35">
+        <v>1196095.77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>1196083.6299999999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>371</v>
+      </c>
+      <c r="E36">
+        <v>1196083.3500000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1196095.1189999999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37">
+        <v>1196095.76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>1196095.118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>373</v>
+      </c>
+      <c r="E38">
+        <v>1196083.3400000001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>1196095.1170000001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39">
+        <v>1196095.75</v>
+      </c>
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>1196083.6200000001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>375</v>
+      </c>
+      <c r="E40">
+        <v>6666666.1644430002</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>1196083.6100000001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41">
+        <v>1196095.74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>1196095.1159999999</v>
+      </c>
+      <c r="B42" t="s">
+        <v>376</v>
+      </c>
+      <c r="E42">
+        <v>1196095.73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>6666666.1646429999</v>
+      </c>
+      <c r="B43" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43">
+        <v>1196095.72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>6666666.1646419996</v>
+      </c>
+      <c r="B44" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44">
+        <v>1196083.33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>1196095.115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>355</v>
+      </c>
+      <c r="E45">
+        <v>1196083.32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>6666666.1646410003</v>
+      </c>
+      <c r="B46" t="s">
+        <v>354</v>
+      </c>
+      <c r="E46">
+        <v>1196095.71</v>
+      </c>
+      <c r="F46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>6666666.1646400001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>353</v>
+      </c>
+      <c r="E47">
+        <v>1196083.31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>1196083.6000000001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48">
+        <v>1196095.7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>1196095.1140000001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="E49">
+        <v>1196095.69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>6666666.1646389998</v>
+      </c>
+      <c r="B50" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50">
+        <v>6666666.1644409997</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>1196095.1129999999</v>
+      </c>
+      <c r="B51" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51">
+        <v>1196083.3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>1196095.112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52">
+        <v>1578.78</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>1196083.5900000001</v>
+      </c>
+      <c r="B53" t="s">
+        <v>324</v>
+      </c>
+      <c r="E53">
+        <v>1196095.68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>1196095.111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>323</v>
+      </c>
+      <c r="E54">
+        <v>1196095.67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>1196083.58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>322</v>
+      </c>
+      <c r="E55">
+        <v>6666666.1644400004</v>
+      </c>
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>1196095.1100000001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E56">
+        <v>6666666.1644390002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>1196083.57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>378</v>
+      </c>
+      <c r="E57">
+        <v>1196095.6599999999</v>
+      </c>
+      <c r="F57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>1196095.1089999999</v>
+      </c>
+      <c r="B58" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58">
+        <v>1196095.6499999999</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>1196083.56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59">
+        <v>6666666.1644379999</v>
+      </c>
+      <c r="F59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>1196095.108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60">
+        <v>6666666.1644369997</v>
+      </c>
+      <c r="F60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>1196083.55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61">
+        <v>6666666.1644360004</v>
+      </c>
+      <c r="F61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>1196095.1070000001</v>
+      </c>
+      <c r="B62" t="s">
+        <v>358</v>
+      </c>
+      <c r="E62">
+        <v>1196095.6399999999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>1196083.54</v>
+      </c>
+      <c r="B63" t="s">
+        <v>343</v>
+      </c>
+      <c r="E63">
+        <v>6666666.1644350002</v>
+      </c>
+      <c r="F63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>1196095.1059999999</v>
+      </c>
+      <c r="B64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64">
+        <v>6666666.1644339999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>1196083.53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>341</v>
+      </c>
+      <c r="E65">
+        <v>1196083.29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>1196095.105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E66">
+        <v>1196095.6299999999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>1196083.52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>339</v>
+      </c>
+      <c r="E67">
+        <v>6666666.1644329997</v>
+      </c>
+      <c r="F67" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>1196095.1040000001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68">
+        <v>1196095.6200000001</v>
+      </c>
+      <c r="F68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>1196095.1029999999</v>
+      </c>
+      <c r="B69" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69">
+        <v>1196095.6100000001</v>
+      </c>
+      <c r="F69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>1196095.102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70">
+        <v>1196083.28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>1196095.101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71">
+        <v>1196095.6000000001</v>
+      </c>
+      <c r="F71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>1196095.1000000001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72">
+        <v>1196083.27</v>
+      </c>
+      <c r="F72" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>6666666.1646299995</v>
+      </c>
+      <c r="B73" t="s">
+        <v>332</v>
+      </c>
+      <c r="E73">
+        <v>1196095.5900000001</v>
+      </c>
+      <c r="F73" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>1196095.99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>333</v>
+      </c>
+      <c r="E74">
+        <v>1196083.26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>1196095.98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75">
+        <v>1196095.58</v>
+      </c>
+      <c r="F75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>1196095.97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>334</v>
+      </c>
+      <c r="E76">
+        <v>1196083.25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>1196095.96</v>
+      </c>
+      <c r="B77" t="s">
+        <v>335</v>
+      </c>
+      <c r="E77">
+        <v>1196095.57</v>
+      </c>
+      <c r="F77" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>1196083.5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78">
+        <v>1196095.56</v>
+      </c>
+      <c r="F78" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>1196095.95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79">
+        <v>1196095.55</v>
+      </c>
+      <c r="F79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>1196083.49</v>
+      </c>
+      <c r="B80" t="s">
+        <v>329</v>
+      </c>
+      <c r="E80">
+        <v>1196095.54</v>
+      </c>
+      <c r="F80" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>1196083.48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81">
+        <v>1196095.53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>1196095.94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>327</v>
+      </c>
+      <c r="E82">
+        <v>1196095.51</v>
+      </c>
+      <c r="F82" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/sample_info.xlsx
+++ b/sample_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="25600" windowHeight="19660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="25600" windowHeight="19660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="542">
   <si>
     <t>sample_id</t>
   </si>
@@ -1158,12 +1158,505 @@
   </si>
   <si>
     <t>Gris3-4</t>
+  </si>
+  <si>
+    <t>App2-1_m</t>
+  </si>
+  <si>
+    <t>App2-2_m</t>
+  </si>
+  <si>
+    <t>App4-10_m</t>
+  </si>
+  <si>
+    <t>App4-8_m</t>
+  </si>
+  <si>
+    <t>App6-4_m</t>
+  </si>
+  <si>
+    <t>App6-5_m</t>
+  </si>
+  <si>
+    <t>Bif1-4_m</t>
+  </si>
+  <si>
+    <t>Bim1-2_m</t>
+  </si>
+  <si>
+    <t>Bim3-2_m</t>
+  </si>
+  <si>
+    <t>Bim4-9_m</t>
+  </si>
+  <si>
+    <t>Choc3-5_m</t>
+  </si>
+  <si>
+    <t>Choc4-2_m</t>
+  </si>
+  <si>
+    <t>Choc5-1_m</t>
+  </si>
+  <si>
+    <t>Choc6-1_m</t>
+  </si>
+  <si>
+    <t>Fer1-1_m</t>
+  </si>
+  <si>
+    <t>Fer1-2_m</t>
+  </si>
+  <si>
+    <t>Fer2-1_m</t>
+  </si>
+  <si>
+    <t>Fer2-2_m</t>
+  </si>
+  <si>
+    <t>Fer4-1_m</t>
+  </si>
+  <si>
+    <t>Fer4-2_m</t>
+  </si>
+  <si>
+    <t>GillExp13_m</t>
+  </si>
+  <si>
+    <t>Gris1-3_m</t>
+  </si>
+  <si>
+    <t>Gris1-4_m</t>
+  </si>
+  <si>
+    <t>Gris1-6_m</t>
+  </si>
+  <si>
+    <t>Gris3-2_m</t>
+  </si>
+  <si>
+    <t>Gris3-4_m</t>
+  </si>
+  <si>
+    <t>HK2_m</t>
+  </si>
+  <si>
+    <t>HK3_m</t>
+  </si>
+  <si>
+    <t>HK7_m</t>
+  </si>
+  <si>
+    <t>HK9x_m</t>
+  </si>
+  <si>
+    <t>Imp1-1_m</t>
+  </si>
+  <si>
+    <t>Imp1-6_m</t>
+  </si>
+  <si>
+    <t>M1-1S_m</t>
+  </si>
+  <si>
+    <t>M1-2G_m</t>
+  </si>
+  <si>
+    <t>M1-3S_m</t>
+  </si>
+  <si>
+    <t>M3-1G_m</t>
+  </si>
+  <si>
+    <t>M6-1G_m</t>
+  </si>
+  <si>
+    <t>M6-3G_m</t>
+  </si>
+  <si>
+    <t>M7-1S_m</t>
+  </si>
+  <si>
+    <t>MRS3-2_m</t>
+  </si>
+  <si>
+    <t>Nev3-1_m</t>
+  </si>
+  <si>
+    <t>Nev3CBA3_m</t>
+  </si>
+  <si>
+    <t>Nev4-2_m</t>
+  </si>
+  <si>
+    <t>Nev5-1_m</t>
+  </si>
+  <si>
+    <t>Nev6-6_m</t>
+  </si>
+  <si>
+    <t>Occ3-1_m</t>
+  </si>
+  <si>
+    <t>Occ4-2_m</t>
+  </si>
+  <si>
+    <t>Occ4-3_m</t>
+  </si>
+  <si>
+    <t>P46G_m</t>
+  </si>
+  <si>
+    <t>P54G_m</t>
+  </si>
+  <si>
+    <t>P62G_m</t>
+  </si>
+  <si>
+    <t>P71S_m</t>
+  </si>
+  <si>
+    <t>P78S_m</t>
+  </si>
+  <si>
+    <t>P83G_m</t>
+  </si>
+  <si>
+    <t>Ruf1-X_m</t>
+  </si>
+  <si>
+    <t>WF3-3_m</t>
+  </si>
+  <si>
+    <t>WF3-4_m</t>
+  </si>
+  <si>
+    <t>wkB10_m</t>
+  </si>
+  <si>
+    <t>wkB108_m</t>
+  </si>
+  <si>
+    <t>wkB112_m</t>
+  </si>
+  <si>
+    <t>wkB171_m</t>
+  </si>
+  <si>
+    <t>wkB178_m</t>
+  </si>
+  <si>
+    <t>wkB18_m</t>
+  </si>
+  <si>
+    <t>wkB180B_m</t>
+  </si>
+  <si>
+    <t>wkB195_m</t>
+  </si>
+  <si>
+    <t>wkB233A_m</t>
+  </si>
+  <si>
+    <t>wkB237A_m</t>
+  </si>
+  <si>
+    <t>wkB273_m</t>
+  </si>
+  <si>
+    <t>wkB292_m</t>
+  </si>
+  <si>
+    <t>wkB298B_m</t>
+  </si>
+  <si>
+    <t>wkB301A_m</t>
+  </si>
+  <si>
+    <t>wkB308_m</t>
+  </si>
+  <si>
+    <t>wkB309_m</t>
+  </si>
+  <si>
+    <t>wkB332_m</t>
+  </si>
+  <si>
+    <t>wkB338_m</t>
+  </si>
+  <si>
+    <t>wkB339_m</t>
+  </si>
+  <si>
+    <t>wkB344_m</t>
+  </si>
+  <si>
+    <t>wkB7_m</t>
+  </si>
+  <si>
+    <t>wkB72_m</t>
+  </si>
+  <si>
+    <t>wkB8_m</t>
+  </si>
+  <si>
+    <t>wkB9_m</t>
+  </si>
+  <si>
+    <t>App2-1_v</t>
+  </si>
+  <si>
+    <t>App2-2_v</t>
+  </si>
+  <si>
+    <t>App4-10_v</t>
+  </si>
+  <si>
+    <t>App4-8_v</t>
+  </si>
+  <si>
+    <t>App6-4_v</t>
+  </si>
+  <si>
+    <t>App6-5_v</t>
+  </si>
+  <si>
+    <t>Bif1-4_v</t>
+  </si>
+  <si>
+    <t>Bim1-2_v</t>
+  </si>
+  <si>
+    <t>Bim3-2_v</t>
+  </si>
+  <si>
+    <t>Bim4-9_v</t>
+  </si>
+  <si>
+    <t>Choc3-5_v</t>
+  </si>
+  <si>
+    <t>Choc4-2_v</t>
+  </si>
+  <si>
+    <t>Choc5-1_v</t>
+  </si>
+  <si>
+    <t>Choc6-1_v</t>
+  </si>
+  <si>
+    <t>Fer1-1_v</t>
+  </si>
+  <si>
+    <t>Fer1-2_v</t>
+  </si>
+  <si>
+    <t>Fer2-1_v</t>
+  </si>
+  <si>
+    <t>Fer2-2_v</t>
+  </si>
+  <si>
+    <t>Fer4-1_v</t>
+  </si>
+  <si>
+    <t>Fer4-2_v</t>
+  </si>
+  <si>
+    <t>GillExp13_v</t>
+  </si>
+  <si>
+    <t>Gris1-3_v</t>
+  </si>
+  <si>
+    <t>Gris1-4_v</t>
+  </si>
+  <si>
+    <t>Gris1-6_v</t>
+  </si>
+  <si>
+    <t>Gris3-2_v</t>
+  </si>
+  <si>
+    <t>Gris3-4_v</t>
+  </si>
+  <si>
+    <t>HK2_v</t>
+  </si>
+  <si>
+    <t>HK3_v</t>
+  </si>
+  <si>
+    <t>HK7_v</t>
+  </si>
+  <si>
+    <t>HK9x_v</t>
+  </si>
+  <si>
+    <t>Imp1-1_v</t>
+  </si>
+  <si>
+    <t>Imp1-6_v</t>
+  </si>
+  <si>
+    <t>M1-1S_v</t>
+  </si>
+  <si>
+    <t>M1-2G_v</t>
+  </si>
+  <si>
+    <t>M1-3S_v</t>
+  </si>
+  <si>
+    <t>M3-1G_v</t>
+  </si>
+  <si>
+    <t>M6-1G_v</t>
+  </si>
+  <si>
+    <t>M6-3G_v</t>
+  </si>
+  <si>
+    <t>M7-1S_v</t>
+  </si>
+  <si>
+    <t>MRS3-2_v</t>
+  </si>
+  <si>
+    <t>Nev3-1_v</t>
+  </si>
+  <si>
+    <t>Nev3CBA3_v</t>
+  </si>
+  <si>
+    <t>Nev4-2_v</t>
+  </si>
+  <si>
+    <t>Nev5-1_v</t>
+  </si>
+  <si>
+    <t>Nev6-6_v</t>
+  </si>
+  <si>
+    <t>Occ3-1_v</t>
+  </si>
+  <si>
+    <t>Occ4-2_v</t>
+  </si>
+  <si>
+    <t>Occ4-3_v</t>
+  </si>
+  <si>
+    <t>P46G_v</t>
+  </si>
+  <si>
+    <t>P54G_v</t>
+  </si>
+  <si>
+    <t>P62G_v</t>
+  </si>
+  <si>
+    <t>P71S_v</t>
+  </si>
+  <si>
+    <t>P78S_v</t>
+  </si>
+  <si>
+    <t>P83G_v</t>
+  </si>
+  <si>
+    <t>Ruf1-X_v</t>
+  </si>
+  <si>
+    <t>WF3-3_v</t>
+  </si>
+  <si>
+    <t>WF3-4_v</t>
+  </si>
+  <si>
+    <t>wkB10_v</t>
+  </si>
+  <si>
+    <t>wkB108_v</t>
+  </si>
+  <si>
+    <t>wkB112_v</t>
+  </si>
+  <si>
+    <t>wkB171_v</t>
+  </si>
+  <si>
+    <t>wkB178_v</t>
+  </si>
+  <si>
+    <t>wkB18_v</t>
+  </si>
+  <si>
+    <t>wkB180B_v</t>
+  </si>
+  <si>
+    <t>wkB195_v</t>
+  </si>
+  <si>
+    <t>wkB233A_v</t>
+  </si>
+  <si>
+    <t>wkB237A_v</t>
+  </si>
+  <si>
+    <t>wkB273_v</t>
+  </si>
+  <si>
+    <t>wkB292_v</t>
+  </si>
+  <si>
+    <t>wkB298B_v</t>
+  </si>
+  <si>
+    <t>wkB301A_v</t>
+  </si>
+  <si>
+    <t>wkB308_v</t>
+  </si>
+  <si>
+    <t>wkB309_v</t>
+  </si>
+  <si>
+    <t>wkB332_v</t>
+  </si>
+  <si>
+    <t>wkB338_v</t>
+  </si>
+  <si>
+    <t>wkB339_v</t>
+  </si>
+  <si>
+    <t>wkB344_v</t>
+  </si>
+  <si>
+    <t>wkB7_v</t>
+  </si>
+  <si>
+    <t>wkB72_v</t>
+  </si>
+  <si>
+    <t>wkB8_v</t>
+  </si>
+  <si>
+    <t>wkB9_v</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1355,7 +1848,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="471">
+  <cellStyleXfs count="493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1827,8 +2320,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1899,9 +2414,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="471">
+  <cellStyles count="493">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2137,6 +2654,17 @@
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2372,6 +2900,17 @@
     <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2703,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW138"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4412,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5086,1162 +5625,3871 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B62" activeCellId="1" sqref="B65 B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B1">
+        <v>1196095.94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="G1">
+        <v>1196095.7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" t="s">
+        <v>541</v>
+      </c>
+      <c r="L1">
+        <v>1578.78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2">
+        <v>1196083.48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2">
+        <v>1196083.31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L2">
+        <v>1578.8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>1196095.95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3">
+        <v>1196095.71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L3">
+        <v>200643.1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>1196083.49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4">
+        <v>1196083.32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" t="s">
+        <v>463</v>
+      </c>
+      <c r="L4">
+        <v>200643.3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>1196083.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5">
+        <v>1196083.33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" t="s">
+        <v>464</v>
+      </c>
+      <c r="L5">
+        <v>200643.4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>1196095.96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6">
+        <v>1196095.72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" t="s">
+        <v>465</v>
+      </c>
+      <c r="L6">
+        <v>200643.5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>1196095.97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7">
+        <v>1196095.73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L7">
+        <v>200643.8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>1196095.98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8">
+        <v>1196095.51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" t="s">
+        <v>467</v>
+      </c>
+      <c r="L8">
+        <v>200643.9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>1196095.99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9">
+        <v>1196095.74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" t="s">
+        <v>468</v>
+      </c>
+      <c r="L9">
+        <v>1196083.25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10">
+        <v>6666666.1646299995</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G10">
+        <v>6666666.1644430002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" t="s">
+        <v>469</v>
+      </c>
+      <c r="L10">
+        <v>1196083.26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11">
+        <v>1196095.1000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11">
+        <v>1196095.53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I11" t="s">
+        <v>470</v>
+      </c>
+      <c r="L11">
+        <v>1196083.27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12">
+        <v>1196095.101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12">
+        <v>1196095.54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" t="s">
+        <v>471</v>
+      </c>
+      <c r="L12">
+        <v>1196083.28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13">
+        <v>1196095.102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G13">
+        <v>1196095.55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" t="s">
+        <v>472</v>
+      </c>
+      <c r="L13">
+        <v>1196083.29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14">
+        <v>1196095.1029999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14">
+        <v>1196095.56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>337</v>
+      </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
+      <c r="L14">
+        <v>1196083.3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15">
+        <v>1196095.1040000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15">
+        <v>1196095.75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I15" t="s">
+        <v>474</v>
+      </c>
+      <c r="L15">
+        <v>1196083.31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16">
+        <v>1196083.52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16">
+        <v>1196083.3400000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>339</v>
+      </c>
+      <c r="I16" t="s">
+        <v>475</v>
+      </c>
+      <c r="L16">
+        <v>1196083.32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>1196095.105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17">
+        <v>1196095.76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>340</v>
+      </c>
+      <c r="I17" t="s">
+        <v>476</v>
+      </c>
+      <c r="L17">
+        <v>1196083.33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <v>1196083.53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18">
+        <v>1196083.3500000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>341</v>
+      </c>
+      <c r="I18" t="s">
+        <v>477</v>
+      </c>
+      <c r="L18">
+        <v>1196083.3400000001</v>
+      </c>
+      <c r="M18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19">
+        <v>1196095.1059999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19">
+        <v>1196095.77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>342</v>
+      </c>
+      <c r="I19" t="s">
+        <v>478</v>
+      </c>
+      <c r="L19">
+        <v>1196083.3500000001</v>
+      </c>
+      <c r="M19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
+        <v>1196083.54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G20">
+        <v>1196083.3600000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>343</v>
+      </c>
+      <c r="I20" t="s">
+        <v>479</v>
+      </c>
+      <c r="L20">
+        <v>1196083.3600000001</v>
+      </c>
+      <c r="M20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21">
+        <v>1196095.1070000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" t="s">
+        <v>399</v>
+      </c>
+      <c r="G21">
+        <v>1196095.57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>358</v>
+      </c>
+      <c r="I21" t="s">
+        <v>480</v>
+      </c>
+      <c r="L21">
+        <v>1196083.3700000001</v>
+      </c>
+      <c r="M21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22">
+        <v>1196083.55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22">
+        <v>1196083.25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" t="s">
+        <v>481</v>
+      </c>
+      <c r="L22">
+        <v>1196083.3799999999</v>
+      </c>
+      <c r="M22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23">
+        <v>1196095.108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G23">
+        <v>1196095.58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" t="s">
+        <v>482</v>
+      </c>
+      <c r="L23">
+        <v>1196083.3899999999</v>
+      </c>
+      <c r="M23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24">
+        <v>1196083.56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" t="s">
+        <v>402</v>
+      </c>
+      <c r="G24">
+        <v>1196083.26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" t="s">
+        <v>483</v>
+      </c>
+      <c r="L24">
+        <v>1196083.3999999999</v>
+      </c>
+      <c r="M24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25">
+        <v>1196095.1089999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" t="s">
+        <v>403</v>
+      </c>
+      <c r="G25">
+        <v>1196095.78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" t="s">
+        <v>484</v>
+      </c>
+      <c r="L25">
+        <v>1196083.4099999999</v>
+      </c>
+      <c r="M25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26">
+        <v>1196083.57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G26">
+        <v>1196083.3700000001</v>
+      </c>
+      <c r="H26" t="s">
+        <v>378</v>
+      </c>
+      <c r="I26" t="s">
+        <v>485</v>
+      </c>
+      <c r="L26">
+        <v>1196083.42</v>
+      </c>
+      <c r="M26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27">
+        <v>1196095.1100000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" t="s">
+        <v>405</v>
+      </c>
+      <c r="G27">
+        <v>1196095.5900000001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I27" t="s">
+        <v>486</v>
+      </c>
+      <c r="L27">
+        <v>1196083.43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28">
+        <v>1196083.58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" t="s">
+        <v>406</v>
+      </c>
+      <c r="G28">
+        <v>1196083.27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>322</v>
+      </c>
+      <c r="I28" t="s">
+        <v>487</v>
+      </c>
+      <c r="L28">
+        <v>1196083.44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29">
+        <v>1196095.111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" t="s">
+        <v>407</v>
+      </c>
+      <c r="G29">
+        <v>1196095.6000000001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>323</v>
+      </c>
+      <c r="I29" t="s">
+        <v>488</v>
+      </c>
+      <c r="L29">
+        <v>1196083.45</v>
+      </c>
+      <c r="M29" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30">
+        <v>1196083.5900000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" t="s">
+        <v>408</v>
+      </c>
+      <c r="G30">
+        <v>1196083.28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>324</v>
+      </c>
+      <c r="I30" t="s">
+        <v>489</v>
+      </c>
+      <c r="L30">
+        <v>1196083.46</v>
+      </c>
+      <c r="M30" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31">
+        <v>1196095.112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" t="s">
+        <v>409</v>
+      </c>
+      <c r="G31">
+        <v>1196095.6100000001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>325</v>
+      </c>
+      <c r="I31" t="s">
+        <v>490</v>
+      </c>
+      <c r="L31">
+        <v>1196083.47</v>
+      </c>
+      <c r="M31" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32">
+        <v>1196095.1129999999</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32">
+        <v>1196095.6200000001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>326</v>
+      </c>
+      <c r="I32" t="s">
+        <v>491</v>
+      </c>
+      <c r="L32">
+        <v>1196083.48</v>
+      </c>
+      <c r="M32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33">
+        <v>6666666.1646389998</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" t="s">
+        <v>411</v>
+      </c>
+      <c r="G33">
+        <v>6666666.1644329997</v>
+      </c>
+      <c r="H33" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" t="s">
+        <v>492</v>
+      </c>
+      <c r="L33">
+        <v>1196083.49</v>
+      </c>
+      <c r="M33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34">
+        <v>1196095.1140000001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" t="s">
+        <v>412</v>
+      </c>
+      <c r="G34">
+        <v>1196095.6299999999</v>
+      </c>
+      <c r="H34" t="s">
+        <v>351</v>
+      </c>
+      <c r="I34" t="s">
+        <v>493</v>
+      </c>
+      <c r="L34">
+        <v>1196083.5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35">
+        <v>1196083.6000000001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" t="s">
+        <v>413</v>
+      </c>
+      <c r="G35">
+        <v>1196083.29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I35" t="s">
+        <v>494</v>
+      </c>
+      <c r="L35">
+        <v>1196083.52</v>
+      </c>
+      <c r="M35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36">
+        <v>6666666.1646400001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" t="s">
+        <v>414</v>
+      </c>
+      <c r="G36">
+        <v>6666666.1644339999</v>
+      </c>
+      <c r="H36" t="s">
+        <v>353</v>
+      </c>
+      <c r="I36" t="s">
+        <v>495</v>
+      </c>
+      <c r="L36">
+        <v>1196083.53</v>
+      </c>
+      <c r="M36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37">
+        <v>6666666.1646410003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" t="s">
+        <v>415</v>
+      </c>
+      <c r="G37">
+        <v>6666666.1644350002</v>
+      </c>
+      <c r="H37" t="s">
+        <v>354</v>
+      </c>
+      <c r="I37" t="s">
+        <v>496</v>
+      </c>
+      <c r="L37">
+        <v>1196083.54</v>
+      </c>
+      <c r="M37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38">
+        <v>1196095.115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" t="s">
+        <v>416</v>
+      </c>
+      <c r="G38">
+        <v>1196095.6399999999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>355</v>
+      </c>
+      <c r="I38" t="s">
+        <v>497</v>
+      </c>
+      <c r="L38">
+        <v>1196083.55</v>
+      </c>
+      <c r="M38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39">
+        <v>6666666.1646419996</v>
+      </c>
+      <c r="C39" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" t="s">
+        <v>417</v>
+      </c>
+      <c r="G39">
+        <v>6666666.1644360004</v>
+      </c>
+      <c r="H39" t="s">
+        <v>356</v>
+      </c>
+      <c r="I39" t="s">
+        <v>498</v>
+      </c>
+      <c r="L39">
+        <v>1196083.56</v>
+      </c>
+      <c r="M39" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40">
+        <v>6666666.1646429999</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" t="s">
+        <v>418</v>
+      </c>
+      <c r="G40">
+        <v>6666666.1644369997</v>
+      </c>
+      <c r="H40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I40" t="s">
+        <v>499</v>
+      </c>
+      <c r="L40">
+        <v>1196083.57</v>
+      </c>
+      <c r="M40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41">
+        <v>1196095.1159999999</v>
+      </c>
+      <c r="C41" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G41">
+        <v>1196095.79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>376</v>
+      </c>
+      <c r="I41" t="s">
+        <v>500</v>
+      </c>
+      <c r="L41">
+        <v>1196083.58</v>
+      </c>
+      <c r="M41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42">
+        <v>1196083.6100000001</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>420</v>
+      </c>
+      <c r="G42">
+        <v>1196083.3799999999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" t="s">
+        <v>501</v>
+      </c>
+      <c r="L42">
+        <v>1196083.5900000001</v>
+      </c>
+      <c r="M42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43">
+        <v>1196083.6200000001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
+      <c r="D43" t="s">
+        <v>421</v>
+      </c>
+      <c r="G43">
+        <v>1196083.3899999999</v>
+      </c>
+      <c r="H43" t="s">
+        <v>375</v>
+      </c>
+      <c r="I43" t="s">
+        <v>502</v>
+      </c>
+      <c r="L43">
+        <v>1196083.6000000001</v>
+      </c>
+      <c r="M43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26">
+        <v>1196095.1170000001</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26">
+        <v>1196095.8</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26">
+        <v>1196083.6100000001</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26">
+        <v>1196095.118</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26">
+        <v>1196095.81</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26">
+        <v>1196083.6200000001</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26">
+        <v>1196095.1189999999</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26">
+        <v>1196095.82</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26">
+        <v>1196083.6299999999</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26">
+        <v>1196083.6299999999</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26">
+        <v>1196083.3999999999</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26">
+        <v>1196083.6399999999</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26">
+        <v>1196095.1200000001</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26">
+        <v>1196095.83</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26">
+        <v>1196083.6499999999</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26">
+        <v>6666666.1646459997</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26">
+        <v>6666666.1644379999</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26">
+        <v>1196083.6599999999</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26">
+        <v>1196095.121</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26">
+        <v>1196095.6499999999</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26">
+        <v>1196083.67</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26">
+        <v>1196095.122</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26">
+        <v>1196095.6599999999</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26">
+        <v>1196083.68</v>
+      </c>
+      <c r="M51" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26">
+        <v>6666666.1646469999</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26">
+        <v>6666666.1644390002</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26">
+        <v>1196083.69</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26">
+        <v>6666666.1646480002</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26">
+        <v>6666666.1644400004</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26">
+        <v>1196083.7</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26">
+        <v>1196095.1229999999</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26">
+        <v>1196095.67</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26">
+        <v>1196083.71</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26">
+        <v>1196083.6399999999</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26">
+        <v>1196083.4099999999</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26">
+        <v>1196095.1000000001</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26">
+        <v>1196083.6499999999</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26">
+        <v>1196083.42</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26">
+        <v>1196095.101</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26">
+        <v>1196095.1240000001</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26">
+        <v>1196095.8400000001</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26">
+        <v>1196095.102</v>
+      </c>
+      <c r="M57" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26">
+        <v>6666666.1646499997</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26">
+        <v>6666666.1644409997</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26">
+        <v>1196095.1029999999</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26">
+        <v>1196095.128</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26">
+        <v>1196095.8600000001</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26">
+        <v>1196095.1040000001</v>
+      </c>
+      <c r="M59" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26">
+        <v>1196095.129</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26">
+        <v>1196095.8700000001</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26">
+        <v>1196095.105</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26">
+        <v>1196095.1299999999</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26">
+        <v>1196095.8799999999</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26">
+        <v>1196095.1059999999</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26">
+        <v>1196095.1310000001</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26">
+        <v>1196095.8899999999</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26">
+        <v>1196095.1070000001</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26">
+        <v>1196095.1259999999</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26">
+        <v>1196095.69</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26">
+        <v>1196095.108</v>
+      </c>
+      <c r="M63" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26">
+        <v>200643.8</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26">
+        <v>200643.3</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26">
+        <v>1196095.1089999999</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26">
+        <v>1196095.132</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26">
+        <v>1196095.8999999999</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26">
+        <v>1196095.1100000001</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26">
+        <v>1196095.1329999999</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26">
+        <v>1196095.9099999999</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26">
+        <v>1196095.111</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26">
+        <v>1196083.67</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26">
+        <v>1196083.43</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26">
+        <v>1196095.112</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26">
+        <v>1196083.68</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26">
+        <v>1196083.44</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26">
+        <v>1196095.1129999999</v>
+      </c>
+      <c r="M68" s="26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26">
+        <v>1196095.1340000001</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26">
+        <v>1196095.92</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26">
+        <v>1196095.1140000001</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26">
+        <v>1196083.69</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26">
+        <v>1196083.45</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26">
+        <v>1196095.115</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26">
+        <v>200643.9</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26">
+        <v>200643.4</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26">
+        <v>1196095.1159999999</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26">
+        <v>1196095.135</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26">
+        <v>1196095.93</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26">
+        <v>1196095.1170000001</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26">
+        <v>200643.1</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26">
+        <v>200643.5</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26">
+        <v>1196095.118</v>
+      </c>
+      <c r="M73" s="26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26">
+        <v>1196083.7</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26">
+        <v>1196083.46</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26">
+        <v>1196095.1189999999</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26">
+        <v>6666666.1646509999</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26">
+        <v>6666666.1644449998</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26">
+        <v>1196095.1200000001</v>
+      </c>
+      <c r="M75" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26">
+        <v>1196083.71</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26">
+        <v>1196083.47</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26">
+        <v>1196095.121</v>
+      </c>
+      <c r="M76" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26">
         <v>6666666.1646560002</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C77" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E2">
+      <c r="D77" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26">
         <v>6666666.164446</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H77" s="26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1196083.71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3">
-        <v>1196083.47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="I77" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26">
+        <v>1196095.122</v>
+      </c>
+      <c r="M77" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26">
+        <v>1196095.125</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26">
+        <v>1196095.68</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26">
+        <v>1196095.1229999999</v>
+      </c>
+      <c r="M78" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26">
+        <v>1196095.1270000001</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26">
+        <v>1196095.8500000001</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26">
+        <v>1196095.1240000001</v>
+      </c>
+      <c r="M79" s="26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26">
+        <v>1578.8</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26">
+        <v>1578.78</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26">
+        <v>1196095.125</v>
+      </c>
+      <c r="M80" s="26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26">
+        <v>1196083.6599999999</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26">
+        <v>1196083.3</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26">
+        <v>1196095.1259999999</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26">
+        <v>1196095.1270000001</v>
+      </c>
+      <c r="M82" s="26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26">
+        <v>1196095.128</v>
+      </c>
+      <c r="M83" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26">
+        <v>1196095.129</v>
+      </c>
+      <c r="M84" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26">
+        <v>1196095.1299999999</v>
+      </c>
+      <c r="M85" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26">
+        <v>1196095.1310000001</v>
+      </c>
+      <c r="M86" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26">
+        <v>1196095.132</v>
+      </c>
+      <c r="M87" s="26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26">
+        <v>1196095.1329999999</v>
+      </c>
+      <c r="M88" s="26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26">
+        <v>1196095.1340000001</v>
+      </c>
+      <c r="M89" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26">
+        <v>1196095.135</v>
+      </c>
+      <c r="M90" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26">
+        <v>1196095.51</v>
+      </c>
+      <c r="M91" s="26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26">
+        <v>1196095.53</v>
+      </c>
+      <c r="M92" s="26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26">
+        <v>1196095.54</v>
+      </c>
+      <c r="M93" s="26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26">
+        <v>1196095.55</v>
+      </c>
+      <c r="M94" s="26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26">
+        <v>1196095.56</v>
+      </c>
+      <c r="M95" s="26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26">
+        <v>1196095.57</v>
+      </c>
+      <c r="M96" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26">
+        <v>1196095.58</v>
+      </c>
+      <c r="M97" s="26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26">
+        <v>1196095.5900000001</v>
+      </c>
+      <c r="M98" s="26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26">
+        <v>1196095.6000000001</v>
+      </c>
+      <c r="M99" s="26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26">
+        <v>1196095.6100000001</v>
+      </c>
+      <c r="M100" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26">
+        <v>1196095.6200000001</v>
+      </c>
+      <c r="M101" s="26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26">
+        <v>1196095.6299999999</v>
+      </c>
+      <c r="M102" s="26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26">
+        <v>1196095.6399999999</v>
+      </c>
+      <c r="M103" s="26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26">
+        <v>1196095.6499999999</v>
+      </c>
+      <c r="M104" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26">
+        <v>1196095.6599999999</v>
+      </c>
+      <c r="M105" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26">
+        <v>1196095.67</v>
+      </c>
+      <c r="M106" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26">
+        <v>1196095.68</v>
+      </c>
+      <c r="M107" s="26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26">
+        <v>1196095.69</v>
+      </c>
+      <c r="M108" s="26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26">
+        <v>1196095.7</v>
+      </c>
+      <c r="M109" s="26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26">
+        <v>1196095.71</v>
+      </c>
+      <c r="M110" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26">
+        <v>1196095.72</v>
+      </c>
+      <c r="M111" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26">
+        <v>1196095.73</v>
+      </c>
+      <c r="M112" s="26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26">
+        <v>1196095.74</v>
+      </c>
+      <c r="M113" s="26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26">
+        <v>1196095.75</v>
+      </c>
+      <c r="M114" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26">
+        <v>1196095.76</v>
+      </c>
+      <c r="M115" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26">
+        <v>1196095.77</v>
+      </c>
+      <c r="M116" s="26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26">
+        <v>1196095.78</v>
+      </c>
+      <c r="M117" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26">
+        <v>1196095.79</v>
+      </c>
+      <c r="M118" s="26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26">
+        <v>1196095.8</v>
+      </c>
+      <c r="M119" s="26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26">
+        <v>1196095.81</v>
+      </c>
+      <c r="M120" s="26" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26">
+        <v>1196095.82</v>
+      </c>
+      <c r="M121" s="26" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="26">
+        <v>1196095.83</v>
+      </c>
+      <c r="M122" s="26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26">
+        <v>1196095.8400000001</v>
+      </c>
+      <c r="M123" s="26" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26">
+        <v>1196095.8500000001</v>
+      </c>
+      <c r="M124" s="26" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="26">
+        <v>1196095.8600000001</v>
+      </c>
+      <c r="M125" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26">
+        <v>1196095.8700000001</v>
+      </c>
+      <c r="M126" s="26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26">
+        <v>1196095.8799999999</v>
+      </c>
+      <c r="M127" s="26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="26">
+        <v>1196095.8899999999</v>
+      </c>
+      <c r="M128" s="26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26">
+        <v>1196095.8999999999</v>
+      </c>
+      <c r="M129" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="26">
+        <v>1196095.9099999999</v>
+      </c>
+      <c r="M130" s="26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26">
+        <v>1196095.92</v>
+      </c>
+      <c r="M131" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26">
+        <v>1196095.93</v>
+      </c>
+      <c r="M132" s="26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="26">
+        <v>1196095.94</v>
+      </c>
+      <c r="M133" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="26">
+        <v>1196095.95</v>
+      </c>
+      <c r="M134" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="26">
+        <v>1196095.96</v>
+      </c>
+      <c r="M135" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26">
+        <v>1196095.97</v>
+      </c>
+      <c r="M136" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26">
+        <v>1196095.98</v>
+      </c>
+      <c r="M137" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26">
+        <v>1196095.99</v>
+      </c>
+      <c r="M138" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="28">
+        <v>6666666.1644329997</v>
+      </c>
+      <c r="M139" s="26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="28">
+        <v>6666666.1644339999</v>
+      </c>
+      <c r="M140" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="28">
+        <v>6666666.1644350002</v>
+      </c>
+      <c r="M141" s="26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="28">
+        <v>6666666.1644360004</v>
+      </c>
+      <c r="M142" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="28">
+        <v>6666666.1644369997</v>
+      </c>
+      <c r="M143" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="28">
+        <v>6666666.1644379999</v>
+      </c>
+      <c r="M144" s="26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="28">
+        <v>6666666.1644390002</v>
+      </c>
+      <c r="M145" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="28">
+        <v>6666666.1644400004</v>
+      </c>
+      <c r="M146" s="26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="28">
+        <v>6666666.1644409997</v>
+      </c>
+      <c r="M147" s="26" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="28">
+        <v>6666666.1644430002</v>
+      </c>
+      <c r="M148" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="28">
+        <v>6666666.1644449998</v>
+      </c>
+      <c r="M149" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="28">
+        <v>6666666.164446</v>
+      </c>
+      <c r="M150" s="26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="28">
+        <v>6666666.1646299995</v>
+      </c>
+      <c r="M151" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="28">
+        <v>6666666.1646389998</v>
+      </c>
+      <c r="M152" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="28">
+        <v>6666666.1646400001</v>
+      </c>
+      <c r="M153" s="26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="28">
+        <v>6666666.1646410003</v>
+      </c>
+      <c r="M154" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="28">
+        <v>6666666.1646419996</v>
+      </c>
+      <c r="M155" s="26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="28">
+        <v>6666666.1646429999</v>
+      </c>
+      <c r="M156" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="28">
+        <v>6666666.1646459997</v>
+      </c>
+      <c r="M157" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="28">
+        <v>6666666.1646469999</v>
+      </c>
+      <c r="M158" s="26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="28">
+        <v>6666666.1646480002</v>
+      </c>
+      <c r="M159" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="28">
+        <v>6666666.1646499997</v>
+      </c>
+      <c r="M160" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="28">
         <v>6666666.1646509999</v>
       </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>6666666.1644449998</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1196083.7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5">
-        <v>1196083.46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>200643.1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6">
-        <v>200643.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>1196095.135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7">
-        <v>1196095.93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>200643.9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8">
-        <v>200643.4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1196083.69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9">
-        <v>1196083.45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1196095.1340000001</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10">
-        <v>1196095.92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1196083.68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11">
-        <v>1196083.44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1196083.67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12">
-        <v>1196083.43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>1196095.1329999999</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13">
-        <v>1196095.9099999999</v>
-      </c>
-      <c r="F13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>1196095.132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14">
-        <v>1196095.8999999999</v>
-      </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>200643.8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15">
-        <v>200643.3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>1196095.1310000001</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16">
-        <v>1196095.8899999999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>1196095.1299999999</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17">
-        <v>1196095.8799999999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>1196095.129</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18">
-        <v>1196095.8700000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>1196095.128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19">
-        <v>1196095.8600000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1196095.1270000001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20">
-        <v>1196095.8500000001</v>
-      </c>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>1196095.1259999999</v>
-      </c>
-      <c r="B21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E21">
-        <v>1196095.8400000001</v>
-      </c>
-      <c r="F21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>6666666.1646499997</v>
-      </c>
-      <c r="B22" t="s">
-        <v>360</v>
-      </c>
-      <c r="E22">
-        <v>1196083.42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>1196083.6599999999</v>
-      </c>
-      <c r="B23" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23">
-        <v>1196083.4099999999</v>
-      </c>
-      <c r="F23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>1578.8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E24">
-        <v>1196095.83</v>
-      </c>
-      <c r="F24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1196095.125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25">
-        <v>1196083.3999999999</v>
-      </c>
-      <c r="F25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>1196095.1240000001</v>
-      </c>
-      <c r="B26" t="s">
-        <v>347</v>
-      </c>
-      <c r="E26">
-        <v>1196095.82</v>
-      </c>
-      <c r="F26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>1196083.6499999999</v>
-      </c>
-      <c r="B27" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27">
-        <v>1196095.81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>1196083.6399999999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>349</v>
-      </c>
-      <c r="E28">
-        <v>1196095.8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>1196095.1229999999</v>
-      </c>
-      <c r="B29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E29">
-        <v>1196083.3899999999</v>
-      </c>
-      <c r="F29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>6666666.1646480002</v>
-      </c>
-      <c r="B30" t="s">
-        <v>365</v>
-      </c>
-      <c r="E30">
-        <v>1196083.3799999999</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>6666666.1646469999</v>
-      </c>
-      <c r="B31" t="s">
-        <v>366</v>
-      </c>
-      <c r="E31">
-        <v>1196095.79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>1196095.122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32">
-        <v>1196083.3700000001</v>
-      </c>
-      <c r="F32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1196095.121</v>
-      </c>
-      <c r="B33" t="s">
-        <v>368</v>
-      </c>
-      <c r="E33">
-        <v>1196095.78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>6666666.1646459997</v>
-      </c>
-      <c r="B34" t="s">
-        <v>369</v>
-      </c>
-      <c r="E34">
-        <v>1196083.3600000001</v>
-      </c>
-      <c r="F34" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>1196095.1200000001</v>
-      </c>
-      <c r="B35" t="s">
-        <v>370</v>
-      </c>
-      <c r="E35">
-        <v>1196095.77</v>
-      </c>
-      <c r="F35" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>1196083.6299999999</v>
-      </c>
-      <c r="B36" t="s">
-        <v>371</v>
-      </c>
-      <c r="E36">
-        <v>1196083.3500000001</v>
-      </c>
-      <c r="F36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>1196095.1189999999</v>
-      </c>
-      <c r="B37" t="s">
-        <v>372</v>
-      </c>
-      <c r="E37">
-        <v>1196095.76</v>
-      </c>
-      <c r="F37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>1196095.118</v>
-      </c>
-      <c r="B38" t="s">
-        <v>373</v>
-      </c>
-      <c r="E38">
-        <v>1196083.3400000001</v>
-      </c>
-      <c r="F38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>1196095.1170000001</v>
-      </c>
-      <c r="B39" t="s">
-        <v>374</v>
-      </c>
-      <c r="E39">
-        <v>1196095.75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>1196083.6200000001</v>
-      </c>
-      <c r="B40" t="s">
-        <v>375</v>
-      </c>
-      <c r="E40">
-        <v>6666666.1644430002</v>
-      </c>
-      <c r="F40" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>1196083.6100000001</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41">
-        <v>1196095.74</v>
-      </c>
-      <c r="F41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>1196095.1159999999</v>
-      </c>
-      <c r="B42" t="s">
-        <v>376</v>
-      </c>
-      <c r="E42">
-        <v>1196095.73</v>
-      </c>
-      <c r="F42" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>6666666.1646429999</v>
-      </c>
-      <c r="B43" t="s">
-        <v>357</v>
-      </c>
-      <c r="E43">
-        <v>1196095.72</v>
-      </c>
-      <c r="F43" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>6666666.1646419996</v>
-      </c>
-      <c r="B44" t="s">
-        <v>356</v>
-      </c>
-      <c r="E44">
-        <v>1196083.33</v>
-      </c>
-      <c r="F44" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>1196095.115</v>
-      </c>
-      <c r="B45" t="s">
-        <v>355</v>
-      </c>
-      <c r="E45">
-        <v>1196083.32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>6666666.1646410003</v>
-      </c>
-      <c r="B46" t="s">
-        <v>354</v>
-      </c>
-      <c r="E46">
-        <v>1196095.71</v>
-      </c>
-      <c r="F46" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>6666666.1646400001</v>
-      </c>
-      <c r="B47" t="s">
-        <v>353</v>
-      </c>
-      <c r="E47">
-        <v>1196083.31</v>
-      </c>
-      <c r="F47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>1196083.6000000001</v>
-      </c>
-      <c r="B48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E48">
-        <v>1196095.7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>1196095.1140000001</v>
-      </c>
-      <c r="B49" t="s">
-        <v>351</v>
-      </c>
-      <c r="E49">
-        <v>1196095.69</v>
-      </c>
-      <c r="F49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>6666666.1646389998</v>
-      </c>
-      <c r="B50" t="s">
-        <v>350</v>
-      </c>
-      <c r="E50">
-        <v>6666666.1644409997</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>1196095.1129999999</v>
-      </c>
-      <c r="B51" t="s">
-        <v>326</v>
-      </c>
-      <c r="E51">
-        <v>1196083.3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>1196095.112</v>
-      </c>
-      <c r="B52" t="s">
-        <v>325</v>
-      </c>
-      <c r="E52">
-        <v>1578.78</v>
-      </c>
-      <c r="F52" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>1196083.5900000001</v>
-      </c>
-      <c r="B53" t="s">
-        <v>324</v>
-      </c>
-      <c r="E53">
-        <v>1196095.68</v>
-      </c>
-      <c r="F53" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>1196095.111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>323</v>
-      </c>
-      <c r="E54">
-        <v>1196095.67</v>
-      </c>
-      <c r="F54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>1196083.58</v>
-      </c>
-      <c r="B55" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55">
-        <v>6666666.1644400004</v>
-      </c>
-      <c r="F55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>1196095.1100000001</v>
-      </c>
-      <c r="B56" t="s">
-        <v>321</v>
-      </c>
-      <c r="E56">
-        <v>6666666.1644390002</v>
-      </c>
-      <c r="F56" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>1196083.57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>378</v>
-      </c>
-      <c r="E57">
-        <v>1196095.6599999999</v>
-      </c>
-      <c r="F57" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>1196095.1089999999</v>
-      </c>
-      <c r="B58" t="s">
-        <v>377</v>
-      </c>
-      <c r="E58">
-        <v>1196095.6499999999</v>
-      </c>
-      <c r="F58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>1196083.56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59">
-        <v>6666666.1644379999</v>
-      </c>
-      <c r="F59" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>1196095.108</v>
-      </c>
-      <c r="B60" t="s">
-        <v>319</v>
-      </c>
-      <c r="E60">
-        <v>6666666.1644369997</v>
-      </c>
-      <c r="F60" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>1196083.55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>318</v>
-      </c>
-      <c r="E61">
-        <v>6666666.1644360004</v>
-      </c>
-      <c r="F61" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>1196095.1070000001</v>
-      </c>
-      <c r="B62" t="s">
-        <v>358</v>
-      </c>
-      <c r="E62">
-        <v>1196095.6399999999</v>
-      </c>
-      <c r="F62" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>1196083.54</v>
-      </c>
-      <c r="B63" t="s">
-        <v>343</v>
-      </c>
-      <c r="E63">
-        <v>6666666.1644350002</v>
-      </c>
-      <c r="F63" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>1196095.1059999999</v>
-      </c>
-      <c r="B64" t="s">
-        <v>342</v>
-      </c>
-      <c r="E64">
-        <v>6666666.1644339999</v>
-      </c>
-      <c r="F64" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>1196083.53</v>
-      </c>
-      <c r="B65" t="s">
-        <v>341</v>
-      </c>
-      <c r="E65">
-        <v>1196083.29</v>
-      </c>
-      <c r="F65" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>1196095.105</v>
-      </c>
-      <c r="B66" t="s">
-        <v>340</v>
-      </c>
-      <c r="E66">
-        <v>1196095.6299999999</v>
-      </c>
-      <c r="F66" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>1196083.52</v>
-      </c>
-      <c r="B67" t="s">
-        <v>339</v>
-      </c>
-      <c r="E67">
-        <v>6666666.1644329997</v>
-      </c>
-      <c r="F67" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>1196095.1040000001</v>
-      </c>
-      <c r="B68" t="s">
-        <v>338</v>
-      </c>
-      <c r="E68">
-        <v>1196095.6200000001</v>
-      </c>
-      <c r="F68" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>1196095.1029999999</v>
-      </c>
-      <c r="B69" t="s">
-        <v>337</v>
-      </c>
-      <c r="E69">
-        <v>1196095.6100000001</v>
-      </c>
-      <c r="F69" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>1196095.102</v>
-      </c>
-      <c r="B70" t="s">
-        <v>336</v>
-      </c>
-      <c r="E70">
-        <v>1196083.28</v>
-      </c>
-      <c r="F70" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>1196095.101</v>
-      </c>
-      <c r="B71" t="s">
-        <v>316</v>
-      </c>
-      <c r="E71">
-        <v>1196095.6000000001</v>
-      </c>
-      <c r="F71" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>1196095.1000000001</v>
-      </c>
-      <c r="B72" t="s">
-        <v>315</v>
-      </c>
-      <c r="E72">
-        <v>1196083.27</v>
-      </c>
-      <c r="F72" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>6666666.1646299995</v>
-      </c>
-      <c r="B73" t="s">
-        <v>332</v>
-      </c>
-      <c r="E73">
-        <v>1196095.5900000001</v>
-      </c>
-      <c r="F73" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>1196095.99</v>
-      </c>
-      <c r="B74" t="s">
-        <v>333</v>
-      </c>
-      <c r="E74">
-        <v>1196083.26</v>
-      </c>
-      <c r="F74" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>1196095.98</v>
-      </c>
-      <c r="B75" t="s">
-        <v>314</v>
-      </c>
-      <c r="E75">
-        <v>1196095.58</v>
-      </c>
-      <c r="F75" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>1196095.97</v>
-      </c>
-      <c r="B76" t="s">
-        <v>334</v>
-      </c>
-      <c r="E76">
-        <v>1196083.25</v>
-      </c>
-      <c r="F76" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>1196095.96</v>
-      </c>
-      <c r="B77" t="s">
-        <v>335</v>
-      </c>
-      <c r="E77">
-        <v>1196095.57</v>
-      </c>
-      <c r="F77" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>1196083.5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>331</v>
-      </c>
-      <c r="E78">
-        <v>1196095.56</v>
-      </c>
-      <c r="F78" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>1196095.95</v>
-      </c>
-      <c r="B79" t="s">
-        <v>330</v>
-      </c>
-      <c r="E79">
-        <v>1196095.55</v>
-      </c>
-      <c r="F79" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>1196083.49</v>
-      </c>
-      <c r="B80" t="s">
-        <v>329</v>
-      </c>
-      <c r="E80">
-        <v>1196095.54</v>
-      </c>
-      <c r="F80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>1196083.48</v>
-      </c>
-      <c r="B81" t="s">
-        <v>328</v>
-      </c>
-      <c r="E81">
-        <v>1196095.53</v>
-      </c>
-      <c r="F81" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>1196095.94</v>
-      </c>
-      <c r="B82" t="s">
-        <v>327</v>
-      </c>
-      <c r="E82">
-        <v>1196095.51</v>
-      </c>
-      <c r="F82" t="s">
-        <v>314</v>
+      <c r="M161" s="26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="28">
+        <v>6666666.1646560002</v>
+      </c>
+      <c r="M162" s="26" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="L1:M162">
+    <sortCondition ref="L1:L162"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
